--- a/sy-portfolio/optimal.xlsx
+++ b/sy-portfolio/optimal.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xebra/Desktop/Projects/quantitative-finance/portfolio-analysis/sy-portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapples\Desktop\quantitative\portfolio-analysis\sy-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408AC54-ECB9-D147-B229-65182887190B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC40B9-639C-477B-8486-8EB31E46D514}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{2369EFC0-1F95-458F-925E-AA1D4F128719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{2369EFC0-1F95-458F-925E-AA1D4F128719}"/>
   </bookViews>
   <sheets>
     <sheet name="Returns" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>Sharpe Ratio</t>
   </si>
@@ -229,12 +230,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,16 +257,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,19 +581,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CB02A9-F694-4643-82AE-53BF130C6E83}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -599,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -613,7 +621,7 @@
         <v>16.3674246465064</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +635,7 @@
         <v>16.3460516482948</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -641,7 +649,7 @@
         <v>13.350912358943001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +663,7 @@
         <v>12.7118267942519</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -669,7 +677,7 @@
         <v>11.6269794539286</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -683,7 +691,7 @@
         <v>11.328472212035299</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -697,7 +705,7 @@
         <v>10.766009344034099</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -711,7 +719,7 @@
         <v>10.6751311747154</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -725,7 +733,7 @@
         <v>10.2579470467723</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -739,7 +747,7 @@
         <v>10.008862962758901</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -753,7 +761,7 @@
         <v>7.9768945747612596</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -767,7 +775,7 @@
         <v>7.4900977629115699</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -781,7 +789,7 @@
         <v>6.94640099045826</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -795,7 +803,7 @@
         <v>6.5736750626164602</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -809,7 +817,7 @@
         <v>6.5288435183148303</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -823,7 +831,7 @@
         <v>6.0801309613685799</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -837,7 +845,7 @@
         <v>6.0279565681147798</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -851,7 +859,7 @@
         <v>5.8753762183971201</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -865,7 +873,7 @@
         <v>5.3993460592005</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -879,7 +887,7 @@
         <v>5.0116084632664197</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -893,7 +901,7 @@
         <v>4.6171662381162397</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -907,7 +915,7 @@
         <v>4.4285328063785601</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -921,7 +929,7 @@
         <v>4.3202596938510602</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -935,7 +943,7 @@
         <v>3.8719012052411599</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -949,7 +957,7 @@
         <v>3.8611212560311401</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -963,7 +971,7 @@
         <v>3.8432209693360102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -977,7 +985,7 @@
         <v>3.73266045216028</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -991,7 +999,7 @@
         <v>3.4533645397238399</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>3.3613416347406999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>3.3296422615969301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>3.1767877556211999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>3.04228042600807</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>2.9314264800263801</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>2.75842023655149</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -1089,7 +1097,7 @@
         <v>2.6580680670626999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>2.4787728137828302</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>2.41744855149213</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>2.32044641129565</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1153,7 @@
         <v>2.2594406930126301</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>2.1156189191152399</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>2.1032954038128899</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>2.0477636776233399</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1209,7 @@
         <v>1.9338901082875299</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>1.7536494791414801</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -1229,7 +1237,7 @@
         <v>1.51509529295817</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>1.08034411870946</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>0.98637068962512098</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>0.89683011377303901</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>0.82528662707631595</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1312,17 +1320,17 @@
       <selection activeCell="D1" sqref="D1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>1.6556900296032</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>1.8283252216491299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>2.01924825740012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>2.2279069387447801</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>2.4520551770012999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>2.6870117447710902</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>2.9249262578340298</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>3.1543254104725298</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>3.36035413635783</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>3.5261421648040501</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>3.6354484627052401</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1579,7 +1587,7 @@
         <v>3.6761135701230701</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>3.6431608539335998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>3.5401973516380298</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>3.3784294580374401</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>3.1737701092541002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>2.94332970458996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>2.7025490182608198</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>2.4635890648955101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>2.23491830195705</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1772,17 +1780,17 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="44" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>0.101425336347163</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>4.5611117027998999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>6.5784991280663202E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>8.4688143672031105E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2594,7 @@
         <v>2.8229867301241902E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>6.3904687062102894E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>2.01951094062272E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>0.300970648728632</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>4.5701097032496203E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>4.3315820151268197E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>7.8448501177467905E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>6.7684540708786003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>2.5276120644627299E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>3.91158384378009E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>0.24463810196569999</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>0.110887060790181</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>5.0741924894328501E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -4328,7 +4336,7 @@
         <v>0.18735375735801099</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>2.36720548826743E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>0.25372861351203702</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -4730,7 +4738,7 @@
         <v>0.27255446376242398</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -4864,7 +4872,7 @@
         <v>5.1653143630262598E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -4998,7 +5006,7 @@
         <v>7.88644794790915E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>5.6559871725659697E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>0.121146310363409</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>0.37962369058380602</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>1.75249620534264E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>2.8946103805974802E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>0.19018567150725901</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>1.53823170563005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>7.5967022108360704E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>3.60466237335023E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -6338,7 +6346,7 @@
         <v>0.103298832356489</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -6472,7 +6480,7 @@
         <v>0.16948159311452499</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>3.8773764809504299E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -6740,7 +6748,7 @@
         <v>2.2885735896491999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -6874,7 +6882,7 @@
         <v>9.4755365573484004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>27</v>
       </c>
@@ -7008,7 +7016,7 @@
         <v>3.1481673680121003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -7142,7 +7150,7 @@
         <v>7.5173616316829395E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>8.5531164654150699E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -7410,7 +7418,7 @@
         <v>3.4039083446361799E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>-8.1105953959713702E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -7678,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7727,4 +7735,3661 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7647578A-15DC-4C92-94EF-F98D99E72BBC}">
+  <dimension ref="A1:F182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F69" sqref="A69:F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.2545572443609905E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.78264688179719699</v>
+      </c>
+      <c r="D3">
+        <v>3.2525171987710499E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.50911448872198E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.78264688179719999</v>
+      </c>
+      <c r="D4">
+        <v>6.5050343975420997E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.7636717330829695E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.78264688179719699</v>
+      </c>
+      <c r="D5">
+        <v>9.75755159631316E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.03</v>
+      </c>
+      <c r="F5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.10018228977443901</v>
+      </c>
+      <c r="C6">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D6">
+        <v>1.3010068795084199E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.04</v>
+      </c>
+      <c r="F6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.102727862218049</v>
+      </c>
+      <c r="C7">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D7">
+        <v>1.6262585993855199E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.105273434661659</v>
+      </c>
+      <c r="C8">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D8">
+        <v>1.9515103192626299E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.06</v>
+      </c>
+      <c r="F8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.107819007105269</v>
+      </c>
+      <c r="C9">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D9">
+        <v>2.2767620391397299E-2</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.92999999999999905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.110364579548879</v>
+      </c>
+      <c r="C10">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D10">
+        <v>2.6020137590168399E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.08</v>
+      </c>
+      <c r="F10">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.11291015199248899</v>
+      </c>
+      <c r="C11">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D11">
+        <v>2.9272654788939399E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.09</v>
+      </c>
+      <c r="F11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.115455724436099</v>
+      </c>
+      <c r="C12">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D12">
+        <v>3.2525171987710502E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.11800129687970901</v>
+      </c>
+      <c r="C13">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D13">
+        <v>3.5777689186481498E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.11</v>
+      </c>
+      <c r="F13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.120546869323319</v>
+      </c>
+      <c r="C14">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D14">
+        <v>3.9030206385252598E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.12</v>
+      </c>
+      <c r="F14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.123092441766929</v>
+      </c>
+      <c r="C15">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D15">
+        <v>4.2282723584023699E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.13</v>
+      </c>
+      <c r="F15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.125638014210538</v>
+      </c>
+      <c r="C16">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D16">
+        <v>4.5535240782794702E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.128183586654148</v>
+      </c>
+      <c r="C17">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D17">
+        <v>4.8787757981565802E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.15</v>
+      </c>
+      <c r="F17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.13072915909775801</v>
+      </c>
+      <c r="C18">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D18">
+        <v>5.2040275180336798E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.16</v>
+      </c>
+      <c r="F18">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.13327473154136801</v>
+      </c>
+      <c r="C19">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D19">
+        <v>5.5292792379107898E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.17</v>
+      </c>
+      <c r="F19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.13582030398497799</v>
+      </c>
+      <c r="C20">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D20">
+        <v>5.8545309577878901E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.18</v>
+      </c>
+      <c r="F20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.138365876428588</v>
+      </c>
+      <c r="C21">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D21">
+        <v>6.1797826776650001E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.19</v>
+      </c>
+      <c r="F21">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.140911448872198</v>
+      </c>
+      <c r="C22">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D22">
+        <v>6.5050343975421004E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.14345702131580801</v>
+      </c>
+      <c r="C23">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D23">
+        <v>6.8302861174192098E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.21</v>
+      </c>
+      <c r="F23">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.14600259375941799</v>
+      </c>
+      <c r="C24">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D24">
+        <v>7.1555378372963094E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.22</v>
+      </c>
+      <c r="F24">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.14854816620302799</v>
+      </c>
+      <c r="C25">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D25">
+        <v>7.4807895571734201E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.23</v>
+      </c>
+      <c r="F25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.151093738646638</v>
+      </c>
+      <c r="C26">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D26">
+        <v>7.8060412770505294E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.24</v>
+      </c>
+      <c r="F26">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.153639311090248</v>
+      </c>
+      <c r="C27">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D27">
+        <v>8.1312929969276304E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.15618488353385801</v>
+      </c>
+      <c r="C28">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D28">
+        <v>8.4565447168047397E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.26</v>
+      </c>
+      <c r="F28">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.15873045597746799</v>
+      </c>
+      <c r="C29">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D29">
+        <v>8.7817964366818393E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.27</v>
+      </c>
+      <c r="F29">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.16127602842107699</v>
+      </c>
+      <c r="C30">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D30">
+        <v>9.1070481565589501E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.163821600864687</v>
+      </c>
+      <c r="C31">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D31">
+        <v>9.4322998764360497E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.16636717330829701</v>
+      </c>
+      <c r="C32">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D32">
+        <v>9.7575515963131604E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.3</v>
+      </c>
+      <c r="F32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.16891274575190701</v>
+      </c>
+      <c r="C33">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D33">
+        <v>0.100828033161902</v>
+      </c>
+      <c r="E33">
+        <v>0.31</v>
+      </c>
+      <c r="F33">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.17145831819551699</v>
+      </c>
+      <c r="C34">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D34">
+        <v>0.104080550360673</v>
+      </c>
+      <c r="E34">
+        <v>0.32</v>
+      </c>
+      <c r="F34">
+        <v>0.67999999999999905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.174003890639127</v>
+      </c>
+      <c r="C35">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D35">
+        <v>0.107333067559444</v>
+      </c>
+      <c r="E35">
+        <v>0.33</v>
+      </c>
+      <c r="F35">
+        <v>0.66999999999999904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.176549463082737</v>
+      </c>
+      <c r="C36">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D36">
+        <v>0.11058558475821501</v>
+      </c>
+      <c r="E36">
+        <v>0.34</v>
+      </c>
+      <c r="F36">
+        <v>0.65999999999999903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.17909503552634701</v>
+      </c>
+      <c r="C37">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D37">
+        <v>0.113838101956986</v>
+      </c>
+      <c r="E37">
+        <v>0.35</v>
+      </c>
+      <c r="F37">
+        <v>0.64999999999999902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.18164060796995701</v>
+      </c>
+      <c r="C38">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D38">
+        <v>0.117090619155757</v>
+      </c>
+      <c r="E38">
+        <v>0.36</v>
+      </c>
+      <c r="F38">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.18418618041356699</v>
+      </c>
+      <c r="C39">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D39">
+        <v>0.12034313635452901</v>
+      </c>
+      <c r="E39">
+        <v>0.37</v>
+      </c>
+      <c r="F39">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.186731752857177</v>
+      </c>
+      <c r="C40">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D40">
+        <v>0.1235956535533</v>
+      </c>
+      <c r="E40">
+        <v>0.38</v>
+      </c>
+      <c r="F40">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.189277325300787</v>
+      </c>
+      <c r="C41">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D41">
+        <v>0.126848170752071</v>
+      </c>
+      <c r="E41">
+        <v>0.39</v>
+      </c>
+      <c r="F41">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.19182289774439701</v>
+      </c>
+      <c r="C42">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D42">
+        <v>0.13010068795084201</v>
+      </c>
+      <c r="E42">
+        <v>0.4</v>
+      </c>
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.19436847018800699</v>
+      </c>
+      <c r="C43">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D43">
+        <v>0.13335320514961299</v>
+      </c>
+      <c r="E43">
+        <v>0.41</v>
+      </c>
+      <c r="F43">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.19691404263161599</v>
+      </c>
+      <c r="C44">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D44">
+        <v>0.136605722348384</v>
+      </c>
+      <c r="E44">
+        <v>0.42</v>
+      </c>
+      <c r="F44">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.199459615075226</v>
+      </c>
+      <c r="C45">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D45">
+        <v>0.13985823954715501</v>
+      </c>
+      <c r="E45">
+        <v>0.43</v>
+      </c>
+      <c r="F45">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.202005187518836</v>
+      </c>
+      <c r="C46">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D46">
+        <v>0.14311075674592599</v>
+      </c>
+      <c r="E46">
+        <v>0.44</v>
+      </c>
+      <c r="F46">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.20455075996244601</v>
+      </c>
+      <c r="C47">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D47">
+        <v>0.146363273944697</v>
+      </c>
+      <c r="E47">
+        <v>0.45</v>
+      </c>
+      <c r="F47">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.20709633240605599</v>
+      </c>
+      <c r="C48">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D48">
+        <v>0.14961579114346801</v>
+      </c>
+      <c r="E48">
+        <v>0.46</v>
+      </c>
+      <c r="F48">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.20964190484966599</v>
+      </c>
+      <c r="C49">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D49">
+        <v>0.152868308342239</v>
+      </c>
+      <c r="E49">
+        <v>0.47</v>
+      </c>
+      <c r="F49">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.212187477293276</v>
+      </c>
+      <c r="C50">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D50">
+        <v>0.15612082554101001</v>
+      </c>
+      <c r="E50">
+        <v>0.48</v>
+      </c>
+      <c r="F50">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.21473304973688601</v>
+      </c>
+      <c r="C51">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D51">
+        <v>0.15937334273978099</v>
+      </c>
+      <c r="E51">
+        <v>0.49</v>
+      </c>
+      <c r="F51">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.21727862218049601</v>
+      </c>
+      <c r="C52">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D52">
+        <v>0.162625859938552</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.21982419462410599</v>
+      </c>
+      <c r="C53">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D53">
+        <v>0.16587837713732301</v>
+      </c>
+      <c r="E53">
+        <v>0.51</v>
+      </c>
+      <c r="F53">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.222369767067716</v>
+      </c>
+      <c r="C54">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D54">
+        <v>0.16913089433609399</v>
+      </c>
+      <c r="E54">
+        <v>0.52</v>
+      </c>
+      <c r="F54">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.224915339511326</v>
+      </c>
+      <c r="C55">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D55">
+        <v>0.172383411534865</v>
+      </c>
+      <c r="E55">
+        <v>0.53</v>
+      </c>
+      <c r="F55">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.22746091195493601</v>
+      </c>
+      <c r="C56">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D56">
+        <v>0.17563592873363601</v>
+      </c>
+      <c r="E56">
+        <v>0.54</v>
+      </c>
+      <c r="F56">
+        <v>0.45999999999999902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.23000648439854501</v>
+      </c>
+      <c r="C57">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D57">
+        <v>0.17888844593240799</v>
+      </c>
+      <c r="E57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F57">
+        <v>0.44999999999999901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.23255205684215499</v>
+      </c>
+      <c r="C58">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D58">
+        <v>0.182140963131179</v>
+      </c>
+      <c r="E58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F58">
+        <v>0.439999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.235097629285765</v>
+      </c>
+      <c r="C59">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D59">
+        <v>0.18539348032995001</v>
+      </c>
+      <c r="E59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F59">
+        <v>0.42999999999999899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.237643201729375</v>
+      </c>
+      <c r="C60">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D60">
+        <v>0.18864599752872099</v>
+      </c>
+      <c r="E60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F60">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.24018877417298501</v>
+      </c>
+      <c r="C61">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D61">
+        <v>0.191898514727492</v>
+      </c>
+      <c r="E61">
+        <v>0.59</v>
+      </c>
+      <c r="F61">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.24273434661659499</v>
+      </c>
+      <c r="C62">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D62">
+        <v>0.19515103192626301</v>
+      </c>
+      <c r="E62">
+        <v>0.6</v>
+      </c>
+      <c r="F62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.24527991906020499</v>
+      </c>
+      <c r="C63">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D63">
+        <v>0.198403549125034</v>
+      </c>
+      <c r="E63">
+        <v>0.61</v>
+      </c>
+      <c r="F63">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.247825491503815</v>
+      </c>
+      <c r="C64">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D64">
+        <v>0.20165606632380501</v>
+      </c>
+      <c r="E64">
+        <v>0.62</v>
+      </c>
+      <c r="F64">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.25037106394742498</v>
+      </c>
+      <c r="C65">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D65">
+        <v>0.20490858352257599</v>
+      </c>
+      <c r="E65">
+        <v>0.63</v>
+      </c>
+      <c r="F65">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.25291663639103501</v>
+      </c>
+      <c r="C66">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D66">
+        <v>0.208161100721347</v>
+      </c>
+      <c r="E66">
+        <v>0.64</v>
+      </c>
+      <c r="F66">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.25546220883464499</v>
+      </c>
+      <c r="C67">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D67">
+        <v>0.21141361792011801</v>
+      </c>
+      <c r="E67">
+        <v>0.65</v>
+      </c>
+      <c r="F67">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.25800778127825502</v>
+      </c>
+      <c r="C68">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D68">
+        <v>0.21466613511888899</v>
+      </c>
+      <c r="E68">
+        <v>0.66</v>
+      </c>
+      <c r="F68">
+        <v>0.33999999999999903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.260553353721865</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.21791865231766</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.32999999999999902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.26309892616547498</v>
+      </c>
+      <c r="C70">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D70">
+        <v>0.22117116951643101</v>
+      </c>
+      <c r="E70">
+        <v>0.68</v>
+      </c>
+      <c r="F70">
+        <v>0.31999999999999901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.26564449860908401</v>
+      </c>
+      <c r="C71">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D71">
+        <v>0.22442368671520199</v>
+      </c>
+      <c r="E71">
+        <v>0.69</v>
+      </c>
+      <c r="F71">
+        <v>0.309999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.26819007105269399</v>
+      </c>
+      <c r="C72">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D72">
+        <v>0.227676203913973</v>
+      </c>
+      <c r="E72">
+        <v>0.7</v>
+      </c>
+      <c r="F72">
+        <v>0.29999999999999899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.27073564349630402</v>
+      </c>
+      <c r="C73">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D73">
+        <v>0.23092872111274401</v>
+      </c>
+      <c r="E73">
+        <v>0.71</v>
+      </c>
+      <c r="F73">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.273281215939914</v>
+      </c>
+      <c r="C74">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D74">
+        <v>0.23418123831151499</v>
+      </c>
+      <c r="E74">
+        <v>0.72</v>
+      </c>
+      <c r="F74">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.27582678838352398</v>
+      </c>
+      <c r="C75">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D75">
+        <v>0.237433755510286</v>
+      </c>
+      <c r="E75">
+        <v>0.73</v>
+      </c>
+      <c r="F75">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.27837236082713401</v>
+      </c>
+      <c r="C76">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D76">
+        <v>0.24068627270905801</v>
+      </c>
+      <c r="E76">
+        <v>0.74</v>
+      </c>
+      <c r="F76">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.28091793327074399</v>
+      </c>
+      <c r="C77">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D77">
+        <v>0.243938789907829</v>
+      </c>
+      <c r="E77">
+        <v>0.75</v>
+      </c>
+      <c r="F77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.28346350571435402</v>
+      </c>
+      <c r="C78">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D78">
+        <v>0.24719130710660001</v>
+      </c>
+      <c r="E78">
+        <v>0.76</v>
+      </c>
+      <c r="F78">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.286009078157964</v>
+      </c>
+      <c r="C79">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D79">
+        <v>0.25044382430537099</v>
+      </c>
+      <c r="E79">
+        <v>0.77</v>
+      </c>
+      <c r="F79">
+        <v>0.22999999999999901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.28855465060157398</v>
+      </c>
+      <c r="C80">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D80">
+        <v>0.253696341504142</v>
+      </c>
+      <c r="E80">
+        <v>0.78</v>
+      </c>
+      <c r="F80">
+        <v>0.219999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.29110022304518401</v>
+      </c>
+      <c r="C81">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D81">
+        <v>0.25694885870291301</v>
+      </c>
+      <c r="E81">
+        <v>0.79</v>
+      </c>
+      <c r="F81">
+        <v>0.20999999999999899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.29364579548879399</v>
+      </c>
+      <c r="C82">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D82">
+        <v>0.26020137590168402</v>
+      </c>
+      <c r="E82">
+        <v>0.8</v>
+      </c>
+      <c r="F82">
+        <v>0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.29619136793240403</v>
+      </c>
+      <c r="C83">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D83">
+        <v>0.26345389310045503</v>
+      </c>
+      <c r="E83">
+        <v>0.81</v>
+      </c>
+      <c r="F83">
+        <v>0.189999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.298736940376014</v>
+      </c>
+      <c r="C84">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D84">
+        <v>0.26670641029922598</v>
+      </c>
+      <c r="E84">
+        <v>0.82</v>
+      </c>
+      <c r="F84">
+        <v>0.17999999999999899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.30128251281962298</v>
+      </c>
+      <c r="C85">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D85">
+        <v>0.26995892749799699</v>
+      </c>
+      <c r="E85">
+        <v>0.83</v>
+      </c>
+      <c r="F85">
+        <v>0.16999999999999901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.30382808526323302</v>
+      </c>
+      <c r="C86">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D86">
+        <v>0.273211444696768</v>
+      </c>
+      <c r="E86">
+        <v>0.84</v>
+      </c>
+      <c r="F86">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.30637365770684299</v>
+      </c>
+      <c r="C87">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D87">
+        <v>0.27646396189553901</v>
+      </c>
+      <c r="E87">
+        <v>0.85</v>
+      </c>
+      <c r="F87">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.30891923015045297</v>
+      </c>
+      <c r="C88">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D88">
+        <v>0.27971647909431002</v>
+      </c>
+      <c r="E88">
+        <v>0.86</v>
+      </c>
+      <c r="F88">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.31146480259406301</v>
+      </c>
+      <c r="C89">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D89">
+        <v>0.28296899629308098</v>
+      </c>
+      <c r="E89">
+        <v>0.87</v>
+      </c>
+      <c r="F89">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.31401037503767298</v>
+      </c>
+      <c r="C90">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D90">
+        <v>0.28622151349185199</v>
+      </c>
+      <c r="E90">
+        <v>0.88</v>
+      </c>
+      <c r="F90">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.31655594748128302</v>
+      </c>
+      <c r="C91">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D91">
+        <v>0.289474030690623</v>
+      </c>
+      <c r="E91">
+        <v>0.89</v>
+      </c>
+      <c r="F91">
+        <v>0.109999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.319101519924893</v>
+      </c>
+      <c r="C92">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D92">
+        <v>0.29272654788939401</v>
+      </c>
+      <c r="E92">
+        <v>0.9</v>
+      </c>
+      <c r="F92">
+        <v>9.9999999999999895E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.32164709236850297</v>
+      </c>
+      <c r="C93">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D93">
+        <v>0.29597906508816502</v>
+      </c>
+      <c r="E93">
+        <v>0.91</v>
+      </c>
+      <c r="F93">
+        <v>8.99999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.32419266481211301</v>
+      </c>
+      <c r="C94">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D94">
+        <v>0.29923158228693703</v>
+      </c>
+      <c r="E94">
+        <v>0.92</v>
+      </c>
+      <c r="F94">
+        <v>7.9999999999999905E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.32673823725572299</v>
+      </c>
+      <c r="C95">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D95">
+        <v>0.30248409948570798</v>
+      </c>
+      <c r="E95">
+        <v>0.93</v>
+      </c>
+      <c r="F95">
+        <v>6.9999999999999896E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.32928380969933302</v>
+      </c>
+      <c r="C96">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D96">
+        <v>0.30573661668447899</v>
+      </c>
+      <c r="E96">
+        <v>0.94</v>
+      </c>
+      <c r="F96">
+        <v>5.9999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.331829382142943</v>
+      </c>
+      <c r="C97">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D97">
+        <v>0.30898913388325</v>
+      </c>
+      <c r="E97">
+        <v>0.95</v>
+      </c>
+      <c r="F97">
+        <v>4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.33437495458655198</v>
+      </c>
+      <c r="C98">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D98">
+        <v>0.31224165108202101</v>
+      </c>
+      <c r="E98">
+        <v>0.96</v>
+      </c>
+      <c r="F98">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.33692052703016201</v>
+      </c>
+      <c r="C99">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D99">
+        <v>0.31549416828079202</v>
+      </c>
+      <c r="E99">
+        <v>0.97</v>
+      </c>
+      <c r="F99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.33946609947377199</v>
+      </c>
+      <c r="C100">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D100">
+        <v>0.31874668547956297</v>
+      </c>
+      <c r="E100">
+        <v>0.98</v>
+      </c>
+      <c r="F100">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.34201167191738202</v>
+      </c>
+      <c r="C101">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D101">
+        <v>0.32199920267833398</v>
+      </c>
+      <c r="E101">
+        <v>0.99</v>
+      </c>
+      <c r="F101">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.344557244360992</v>
+      </c>
+      <c r="C102">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D102">
+        <v>0.32525171987710499</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.34710281680460198</v>
+      </c>
+      <c r="C103">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D103">
+        <v>0.328504237075876</v>
+      </c>
+      <c r="E103">
+        <v>1.01</v>
+      </c>
+      <c r="F103">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.34964838924821201</v>
+      </c>
+      <c r="C104">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D104">
+        <v>0.33175675427464701</v>
+      </c>
+      <c r="E104">
+        <v>1.02</v>
+      </c>
+      <c r="F104">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.35219396169182199</v>
+      </c>
+      <c r="C105">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D105">
+        <v>0.33500927147341802</v>
+      </c>
+      <c r="E105">
+        <v>1.03</v>
+      </c>
+      <c r="F105">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.35473953413543202</v>
+      </c>
+      <c r="C106">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D106">
+        <v>0.33826178867218898</v>
+      </c>
+      <c r="E106">
+        <v>1.04</v>
+      </c>
+      <c r="F106">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.357285106579042</v>
+      </c>
+      <c r="C107">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D107">
+        <v>0.34151430587095999</v>
+      </c>
+      <c r="E107">
+        <v>1.05</v>
+      </c>
+      <c r="F107">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.35983067902265198</v>
+      </c>
+      <c r="C108">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D108">
+        <v>0.344766823069731</v>
+      </c>
+      <c r="E108">
+        <v>1.06</v>
+      </c>
+      <c r="F108">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.36237625146626201</v>
+      </c>
+      <c r="C109">
+        <v>0.78264688179719799</v>
+      </c>
+      <c r="D109">
+        <v>0.34801934026850201</v>
+      </c>
+      <c r="E109">
+        <v>1.07</v>
+      </c>
+      <c r="F109">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.36492182390987199</v>
+      </c>
+      <c r="C110">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D110">
+        <v>0.35127185746727302</v>
+      </c>
+      <c r="E110">
+        <v>1.08</v>
+      </c>
+      <c r="F110">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.36746739635348202</v>
+      </c>
+      <c r="C111">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D111">
+        <v>0.35452437466604497</v>
+      </c>
+      <c r="E111">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F111">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.370012968797091</v>
+      </c>
+      <c r="C112">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D112">
+        <v>0.35777689186481598</v>
+      </c>
+      <c r="E112">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F112">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.37255854124070098</v>
+      </c>
+      <c r="C113">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D113">
+        <v>0.36102940906358699</v>
+      </c>
+      <c r="E113">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F113">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.37510411368431101</v>
+      </c>
+      <c r="C114">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D114">
+        <v>0.364281926262358</v>
+      </c>
+      <c r="E114">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F114">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.37764968612792099</v>
+      </c>
+      <c r="C115">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D115">
+        <v>0.36753444346112901</v>
+      </c>
+      <c r="E115">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F115">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.38019525857153103</v>
+      </c>
+      <c r="C116">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D116">
+        <v>0.37078696065990002</v>
+      </c>
+      <c r="E116">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F116">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.382740831015141</v>
+      </c>
+      <c r="C117">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D117">
+        <v>0.37403947785867098</v>
+      </c>
+      <c r="E117">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F117">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.38528640345875098</v>
+      </c>
+      <c r="C118">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D118">
+        <v>0.37729199505744199</v>
+      </c>
+      <c r="E118">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F118">
+        <v>-0.159999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.38783197590236101</v>
+      </c>
+      <c r="C119">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D119">
+        <v>0.380544512256213</v>
+      </c>
+      <c r="E119">
+        <v>1.17</v>
+      </c>
+      <c r="F119">
+        <v>-0.16999999999999901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.39037754834597099</v>
+      </c>
+      <c r="C120">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D120">
+        <v>0.38379702945498401</v>
+      </c>
+      <c r="E120">
+        <v>1.18</v>
+      </c>
+      <c r="F120">
+        <v>-0.17999999999999899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.39292312078958103</v>
+      </c>
+      <c r="C121">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D121">
+        <v>0.38704954665375502</v>
+      </c>
+      <c r="E121">
+        <v>1.19</v>
+      </c>
+      <c r="F121">
+        <v>-0.189999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.395468693233191</v>
+      </c>
+      <c r="C122">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D122">
+        <v>0.39030206385252603</v>
+      </c>
+      <c r="E122">
+        <v>1.2</v>
+      </c>
+      <c r="F122">
+        <v>-0.19999999999999901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.39801426567680098</v>
+      </c>
+      <c r="C123">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D123">
+        <v>0.39355458105129698</v>
+      </c>
+      <c r="E123">
+        <v>1.21</v>
+      </c>
+      <c r="F123">
+        <v>-0.20999999999999899</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.40055983812041102</v>
+      </c>
+      <c r="C124">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D124">
+        <v>0.39680709825006799</v>
+      </c>
+      <c r="E124">
+        <v>1.22</v>
+      </c>
+      <c r="F124">
+        <v>-0.219999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.40310541056402099</v>
+      </c>
+      <c r="C125">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D125">
+        <v>0.400059615448839</v>
+      </c>
+      <c r="E125">
+        <v>1.23</v>
+      </c>
+      <c r="F125">
+        <v>-0.22999999999999901</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.40565098300762997</v>
+      </c>
+      <c r="C126">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D126">
+        <v>0.40331213264761001</v>
+      </c>
+      <c r="E126">
+        <v>1.24</v>
+      </c>
+      <c r="F126">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.40819655545124001</v>
+      </c>
+      <c r="C127">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D127">
+        <v>0.40656464984638102</v>
+      </c>
+      <c r="E127">
+        <v>1.25</v>
+      </c>
+      <c r="F127">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.41074212789484998</v>
+      </c>
+      <c r="C128">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D128">
+        <v>0.40981716704515198</v>
+      </c>
+      <c r="E128">
+        <v>1.26</v>
+      </c>
+      <c r="F128">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.41328770033846002</v>
+      </c>
+      <c r="C129">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D129">
+        <v>0.41306968424392299</v>
+      </c>
+      <c r="E129">
+        <v>1.27</v>
+      </c>
+      <c r="F129">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.41583327278207</v>
+      </c>
+      <c r="C130">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D130">
+        <v>0.41632220144269499</v>
+      </c>
+      <c r="E130">
+        <v>1.28</v>
+      </c>
+      <c r="F130">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.41837884522567997</v>
+      </c>
+      <c r="C131">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D131">
+        <v>0.419574718641466</v>
+      </c>
+      <c r="E131">
+        <v>1.29</v>
+      </c>
+      <c r="F131">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.42092441766929001</v>
+      </c>
+      <c r="C132">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D132">
+        <v>0.42282723584023701</v>
+      </c>
+      <c r="E132">
+        <v>1.3</v>
+      </c>
+      <c r="F132">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.42346999011289999</v>
+      </c>
+      <c r="C133">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D133">
+        <v>0.42607975303900802</v>
+      </c>
+      <c r="E133">
+        <v>1.31</v>
+      </c>
+      <c r="F133">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.42601556255651002</v>
+      </c>
+      <c r="C134">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D134">
+        <v>0.42933227023777898</v>
+      </c>
+      <c r="E134">
+        <v>1.32</v>
+      </c>
+      <c r="F134">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.42856113500012</v>
+      </c>
+      <c r="C135">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D135">
+        <v>0.43258478743654999</v>
+      </c>
+      <c r="E135">
+        <v>1.33</v>
+      </c>
+      <c r="F135">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.43110670744372998</v>
+      </c>
+      <c r="C136">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D136">
+        <v>0.435837304635321</v>
+      </c>
+      <c r="E136">
+        <v>1.34</v>
+      </c>
+      <c r="F136">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.43365227988734001</v>
+      </c>
+      <c r="C137">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D137">
+        <v>0.43908982183409201</v>
+      </c>
+      <c r="E137">
+        <v>1.35</v>
+      </c>
+      <c r="F137">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.43619785233094999</v>
+      </c>
+      <c r="C138">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D138">
+        <v>0.44234233903286302</v>
+      </c>
+      <c r="E138">
+        <v>1.36</v>
+      </c>
+      <c r="F138">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.43874342477455902</v>
+      </c>
+      <c r="C139">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D139">
+        <v>0.44559485623163397</v>
+      </c>
+      <c r="E139">
+        <v>1.37</v>
+      </c>
+      <c r="F139">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.441288997218169</v>
+      </c>
+      <c r="C140">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D140">
+        <v>0.44884737343040498</v>
+      </c>
+      <c r="E140">
+        <v>1.38</v>
+      </c>
+      <c r="F140">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.44383456966177898</v>
+      </c>
+      <c r="C141">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D141">
+        <v>0.45209989062917599</v>
+      </c>
+      <c r="E141">
+        <v>1.39</v>
+      </c>
+      <c r="F141">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.44638014210538901</v>
+      </c>
+      <c r="C142">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D142">
+        <v>0.455352407827947</v>
+      </c>
+      <c r="E142">
+        <v>1.4</v>
+      </c>
+      <c r="F142">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.44892571454899899</v>
+      </c>
+      <c r="C143">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D143">
+        <v>0.45860492502671801</v>
+      </c>
+      <c r="E143">
+        <v>1.41</v>
+      </c>
+      <c r="F143">
+        <v>-0.40999999999999898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.45147128699260902</v>
+      </c>
+      <c r="C144">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D144">
+        <v>0.46185744222548902</v>
+      </c>
+      <c r="E144">
+        <v>1.42</v>
+      </c>
+      <c r="F144">
+        <v>-0.41999999999999899</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.454016859436219</v>
+      </c>
+      <c r="C145">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D145">
+        <v>0.46510995942425998</v>
+      </c>
+      <c r="E145">
+        <v>1.43</v>
+      </c>
+      <c r="F145">
+        <v>-0.42999999999999899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.45656243187982898</v>
+      </c>
+      <c r="C146">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D146">
+        <v>0.46836247662303099</v>
+      </c>
+      <c r="E146">
+        <v>1.44</v>
+      </c>
+      <c r="F146">
+        <v>-0.439999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.45910800432343901</v>
+      </c>
+      <c r="C147">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D147">
+        <v>0.471614993821802</v>
+      </c>
+      <c r="E147">
+        <v>1.45</v>
+      </c>
+      <c r="F147">
+        <v>-0.44999999999999901</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.46165357676704899</v>
+      </c>
+      <c r="C148">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D148">
+        <v>0.47486751102057301</v>
+      </c>
+      <c r="E148">
+        <v>1.46</v>
+      </c>
+      <c r="F148">
+        <v>-0.45999999999999902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.46419914921065902</v>
+      </c>
+      <c r="C149">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D149">
+        <v>0.47812002821934402</v>
+      </c>
+      <c r="E149">
+        <v>1.47</v>
+      </c>
+      <c r="F149">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.466744721654269</v>
+      </c>
+      <c r="C150">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D150">
+        <v>0.48137254541811603</v>
+      </c>
+      <c r="E150">
+        <v>1.48</v>
+      </c>
+      <c r="F150">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.46929029409787898</v>
+      </c>
+      <c r="C151">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D151">
+        <v>0.48462506261688698</v>
+      </c>
+      <c r="E151">
+        <v>1.49</v>
+      </c>
+      <c r="F151">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.47183586654148801</v>
+      </c>
+      <c r="C152">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D152">
+        <v>0.48787757981565799</v>
+      </c>
+      <c r="E152">
+        <v>1.5</v>
+      </c>
+      <c r="F152">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.47438143898509799</v>
+      </c>
+      <c r="C153">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D153">
+        <v>0.491130097014429</v>
+      </c>
+      <c r="E153">
+        <v>1.51</v>
+      </c>
+      <c r="F153">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.47692701142870803</v>
+      </c>
+      <c r="C154">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D154">
+        <v>0.49438261421320001</v>
+      </c>
+      <c r="E154">
+        <v>1.52</v>
+      </c>
+      <c r="F154">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.479472583872318</v>
+      </c>
+      <c r="C155">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D155">
+        <v>0.49763513141197102</v>
+      </c>
+      <c r="E155">
+        <v>1.53</v>
+      </c>
+      <c r="F155">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.48201815631592798</v>
+      </c>
+      <c r="C156">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D156">
+        <v>0.50088764861074198</v>
+      </c>
+      <c r="E156">
+        <v>1.54</v>
+      </c>
+      <c r="F156">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.48456372875953801</v>
+      </c>
+      <c r="C157">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D157">
+        <v>0.50414016580951304</v>
+      </c>
+      <c r="E157">
+        <v>1.55</v>
+      </c>
+      <c r="F157">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.48710930120314799</v>
+      </c>
+      <c r="C158">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D158">
+        <v>0.507392683008284</v>
+      </c>
+      <c r="E158">
+        <v>1.56</v>
+      </c>
+      <c r="F158">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.48965487364675803</v>
+      </c>
+      <c r="C159">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D159">
+        <v>0.51064520020705495</v>
+      </c>
+      <c r="E159">
+        <v>1.57</v>
+      </c>
+      <c r="F159">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.492200446090368</v>
+      </c>
+      <c r="C160">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D160">
+        <v>0.51389771740582602</v>
+      </c>
+      <c r="E160">
+        <v>1.58</v>
+      </c>
+      <c r="F160">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.49474601853397798</v>
+      </c>
+      <c r="C161">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D161">
+        <v>0.51715023460459697</v>
+      </c>
+      <c r="E161">
+        <v>1.59</v>
+      </c>
+      <c r="F161">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.49729159097758802</v>
+      </c>
+      <c r="C162">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D162">
+        <v>0.52040275180336804</v>
+      </c>
+      <c r="E162">
+        <v>1.6</v>
+      </c>
+      <c r="F162">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.49983716342119799</v>
+      </c>
+      <c r="C163">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D163">
+        <v>0.52365526900213899</v>
+      </c>
+      <c r="E163">
+        <v>1.61</v>
+      </c>
+      <c r="F163">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.50238273586480797</v>
+      </c>
+      <c r="C164">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D164">
+        <v>0.52690778620091006</v>
+      </c>
+      <c r="E164">
+        <v>1.62</v>
+      </c>
+      <c r="F164">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.50492830830841795</v>
+      </c>
+      <c r="C165">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D165">
+        <v>0.53016030339968101</v>
+      </c>
+      <c r="E165">
+        <v>1.63</v>
+      </c>
+      <c r="F165">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.50747388075202804</v>
+      </c>
+      <c r="C166">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D166">
+        <v>0.53341282059845296</v>
+      </c>
+      <c r="E166">
+        <v>1.64</v>
+      </c>
+      <c r="F166">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.51001945319563702</v>
+      </c>
+      <c r="C167">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D167">
+        <v>0.53666533779722403</v>
+      </c>
+      <c r="E167">
+        <v>1.65</v>
+      </c>
+      <c r="F167">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.512565025639247</v>
+      </c>
+      <c r="C168">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D168">
+        <v>0.53991785499599498</v>
+      </c>
+      <c r="E168">
+        <v>1.66</v>
+      </c>
+      <c r="F168">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.51511059808285697</v>
+      </c>
+      <c r="C169">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D169">
+        <v>0.54317037219476605</v>
+      </c>
+      <c r="E169">
+        <v>1.67</v>
+      </c>
+      <c r="F169">
+        <v>-0.66999999999999904</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.51765617052646695</v>
+      </c>
+      <c r="C170">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D170">
+        <v>0.546422889393537</v>
+      </c>
+      <c r="E170">
+        <v>1.68</v>
+      </c>
+      <c r="F170">
+        <v>-0.67999999999999905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.52020174297007704</v>
+      </c>
+      <c r="C171">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D171">
+        <v>0.54967540659230796</v>
+      </c>
+      <c r="E171">
+        <v>1.69</v>
+      </c>
+      <c r="F171">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.52274731541368702</v>
+      </c>
+      <c r="C172">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D172">
+        <v>0.55292792379107902</v>
+      </c>
+      <c r="E172">
+        <v>1.7</v>
+      </c>
+      <c r="F172">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.525292887857297</v>
+      </c>
+      <c r="C173">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D173">
+        <v>0.55618044098984998</v>
+      </c>
+      <c r="E173">
+        <v>1.71</v>
+      </c>
+      <c r="F173">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.52783846030090698</v>
+      </c>
+      <c r="C174">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D174">
+        <v>0.55943295818862104</v>
+      </c>
+      <c r="E174">
+        <v>1.72</v>
+      </c>
+      <c r="F174">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.53038403274451695</v>
+      </c>
+      <c r="C175">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D175">
+        <v>0.562685475387392</v>
+      </c>
+      <c r="E175">
+        <v>1.73</v>
+      </c>
+      <c r="F175">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.53292960518812704</v>
+      </c>
+      <c r="C176">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D176">
+        <v>0.56593799258616295</v>
+      </c>
+      <c r="E176">
+        <v>1.74</v>
+      </c>
+      <c r="F176">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.53547517763173702</v>
+      </c>
+      <c r="C177">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D177">
+        <v>0.56919050978493402</v>
+      </c>
+      <c r="E177">
+        <v>1.75</v>
+      </c>
+      <c r="F177">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.538020750075347</v>
+      </c>
+      <c r="C178">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D178">
+        <v>0.57244302698370497</v>
+      </c>
+      <c r="E178">
+        <v>1.76</v>
+      </c>
+      <c r="F178">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.54056632251895698</v>
+      </c>
+      <c r="C179">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D179">
+        <v>0.57569554418247604</v>
+      </c>
+      <c r="E179">
+        <v>1.77</v>
+      </c>
+      <c r="F179">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.54311189496256695</v>
+      </c>
+      <c r="C180">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D180">
+        <v>0.57894806138124699</v>
+      </c>
+      <c r="E180">
+        <v>1.78</v>
+      </c>
+      <c r="F180">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.54565746740617604</v>
+      </c>
+      <c r="C181">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D181">
+        <v>0.58220057858001795</v>
+      </c>
+      <c r="E181">
+        <v>1.79</v>
+      </c>
+      <c r="F181">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.54820303984978602</v>
+      </c>
+      <c r="C182">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D182">
+        <v>0.58545309577878901</v>
+      </c>
+      <c r="E182">
+        <v>1.8</v>
+      </c>
+      <c r="F182">
+        <v>-0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sy-portfolio/optimal.xlsx
+++ b/sy-portfolio/optimal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapples\Desktop\quantitative\portfolio-analysis\sy-portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC40B9-639C-477B-8486-8EB31E46D514}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0019A2D8-1835-466B-8BC6-5543BCDCDFBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{2369EFC0-1F95-458F-925E-AA1D4F128719}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7742,1370 +7742,1372 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F69" sqref="A69:F69"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.09</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>9.2545572443609905E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.78264688179719699</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>3.2525171987710499E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.01</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>9.50911448872198E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.78264688179719999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>6.5050343975420997E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.02</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>9.7636717330829695E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.78264688179719699</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>9.75755159631316E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.03</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.10018228977443901</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1.3010068795084199E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.04</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0.102727862218049</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1.6262585993855199E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.05</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.105273434661659</v>
       </c>
-      <c r="C8">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D8" s="3">
         <v>1.9515103192626299E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.06</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.107819007105269</v>
       </c>
-      <c r="C9">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.2767620391397299E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.92999999999999905</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.110364579548879</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>2.6020137590168399E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.08</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.11291015199248899</v>
       </c>
-      <c r="C11">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D11" s="3">
         <v>2.9272654788939399E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.09</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.115455724436099</v>
       </c>
-      <c r="C12">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D12" s="3">
         <v>3.2525171987710502E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.11800129687970901</v>
       </c>
-      <c r="C13">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D13" s="3">
         <v>3.5777689186481498E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>0.120546869323319</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>3.9030206385252598E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.123092441766929</v>
       </c>
-      <c r="C15">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D15" s="3">
         <v>4.2282723584023699E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>0.125638014210538</v>
       </c>
-      <c r="C16">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D16" s="3">
         <v>4.5535240782794702E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.128183586654148</v>
       </c>
-      <c r="C17">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D17" s="3">
         <v>4.8787757981565802E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.15</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>0.13072915909775801</v>
       </c>
-      <c r="C18">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D18" s="3">
         <v>5.2040275180336798E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.16</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>0.13327473154136801</v>
       </c>
-      <c r="C19">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D19" s="3">
         <v>5.5292792379107898E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.17</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>0.13582030398497799</v>
       </c>
-      <c r="C20">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D20" s="3">
         <v>5.8545309577878901E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.18</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>0.138365876428588</v>
       </c>
-      <c r="C21">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D21" s="3">
         <v>6.1797826776650001E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.19</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0.81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>0.140911448872198</v>
       </c>
-      <c r="C22">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D22" s="3">
         <v>6.5050343975421004E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>0.14345702131580801</v>
       </c>
-      <c r="C23">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D23" s="3">
         <v>6.8302861174192098E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>0.21</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>0.79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>0.14600259375941799</v>
       </c>
-      <c r="C24">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D24" s="3">
         <v>7.1555378372963094E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.22</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>0.14854816620302799</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>7.4807895571734201E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.23</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>0.151093738646638</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>7.8060412770505294E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.24</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>0.153639311090248</v>
       </c>
-      <c r="C27">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D27" s="3">
         <v>8.1312929969276304E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>0.25</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>0.15618488353385801</v>
       </c>
-      <c r="C28">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D28" s="3">
         <v>8.4565447168047397E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.26</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0.74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>0.15873045597746799</v>
       </c>
-      <c r="C29">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D29" s="3">
         <v>8.7817964366818393E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.27</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0.73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.16127602842107699</v>
       </c>
-      <c r="C30">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D30" s="3">
         <v>9.1070481565589501E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>0.72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>0.163821600864687</v>
       </c>
-      <c r="C31">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D31" s="3">
         <v>9.4322998764360497E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0.71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>0.16636717330829701</v>
       </c>
-      <c r="C32">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D32" s="3">
         <v>9.7575515963131604E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0.3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>0.16891274575190701</v>
       </c>
-      <c r="C33">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D33" s="3">
         <v>0.100828033161902</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.31</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>0.69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>0.17145831819551699</v>
       </c>
-      <c r="C34">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D34" s="3">
         <v>0.104080550360673</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>0.32</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>0.67999999999999905</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>0.174003890639127</v>
       </c>
-      <c r="C35">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D35" s="3">
         <v>0.107333067559444</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>0.33</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>0.66999999999999904</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>0.176549463082737</v>
       </c>
-      <c r="C36">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D36" s="3">
         <v>0.11058558475821501</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>0.34</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>0.65999999999999903</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>0.17909503552634701</v>
       </c>
-      <c r="C37">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D37" s="3">
         <v>0.113838101956986</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>0.35</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>0.64999999999999902</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>0.18164060796995701</v>
       </c>
-      <c r="C38">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D38" s="3">
         <v>0.117090619155757</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>0.36</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0.64</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>0.18418618041356699</v>
       </c>
-      <c r="C39">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D39" s="3">
         <v>0.12034313635452901</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>0.37</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0.63</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>0.186731752857177</v>
       </c>
-      <c r="C40">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.1235956535533</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>0.38</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0.62</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>0.189277325300787</v>
       </c>
-      <c r="C41">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D41" s="3">
         <v>0.126848170752071</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>0.39</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>0.61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>0.19182289774439701</v>
       </c>
-      <c r="C42">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D42" s="3">
         <v>0.13010068795084201</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>0.4</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>0.19436847018800699</v>
       </c>
-      <c r="C43">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D43" s="3">
         <v>0.13335320514961299</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0.41</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0.59</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>0.19691404263161599</v>
       </c>
-      <c r="C44">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D44" s="3">
         <v>0.136605722348384</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>0.42</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>0.199459615075226</v>
       </c>
-      <c r="C45">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D45" s="3">
         <v>0.13985823954715501</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>0.43</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>0.202005187518836</v>
       </c>
-      <c r="C46">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D46" s="3">
         <v>0.14311075674592599</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0.44</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>0.20455075996244601</v>
       </c>
-      <c r="C47">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D47" s="3">
         <v>0.146363273944697</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>0.45</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>0.20709633240605599</v>
       </c>
-      <c r="C48">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D48" s="3">
         <v>0.14961579114346801</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>0.46</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>0.54</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>0.20964190484966599</v>
       </c>
-      <c r="C49">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D49" s="3">
         <v>0.152868308342239</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>0.47</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0.53</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>0.212187477293276</v>
       </c>
-      <c r="C50">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D50" s="3">
         <v>0.15612082554101001</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>0.48</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0.52</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>0.21473304973688601</v>
       </c>
-      <c r="C51">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D51" s="3">
         <v>0.15937334273978099</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>0.49</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0.51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>0.21727862218049601</v>
       </c>
-      <c r="C52">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D52" s="3">
         <v>0.162625859938552</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>0.5</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>0.21982419462410599</v>
       </c>
-      <c r="C53">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D53" s="3">
         <v>0.16587837713732301</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>0.51</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>0.49</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>0.222369767067716</v>
       </c>
-      <c r="C54">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D54" s="3">
         <v>0.16913089433609399</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>0.52</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>0.48</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>0.224915339511326</v>
       </c>
-      <c r="C55">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D55" s="3">
         <v>0.172383411534865</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>0.53</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>0.47</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>0.22746091195493601</v>
       </c>
-      <c r="C56">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D56" s="3">
         <v>0.17563592873363601</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0.54</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>0.45999999999999902</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>0.23000648439854501</v>
       </c>
-      <c r="C57">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D57" s="3">
         <v>0.17888844593240799</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>0.44999999999999901</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>0.23255205684215499</v>
       </c>
-      <c r="C58">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D58" s="3">
         <v>0.182140963131179</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>0.439999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>0.235097629285765</v>
       </c>
-      <c r="C59">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D59" s="3">
         <v>0.18539348032995001</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>0.42999999999999899</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>0.237643201729375</v>
       </c>
-      <c r="C60">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D60" s="3">
         <v>0.18864599752872099</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>0.42</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>0.24018877417298501</v>
       </c>
-      <c r="C61">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D61" s="3">
         <v>0.191898514727492</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>0.59</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>0.41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>0.24273434661659499</v>
       </c>
-      <c r="C62">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D62" s="3">
         <v>0.19515103192626301</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>0.6</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>0.24527991906020499</v>
       </c>
-      <c r="C63">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D63" s="3">
         <v>0.198403549125034</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>0.61</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>0.39</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>0.247825491503815</v>
       </c>
-      <c r="C64">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D64" s="3">
         <v>0.20165606632380501</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>0.62</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>0.38</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>0.25037106394742498</v>
       </c>
-      <c r="C65">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D65" s="3">
         <v>0.20490858352257599</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>0.63</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>0.37</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>0.25291663639103501</v>
       </c>
-      <c r="C66">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D66" s="3">
         <v>0.208161100721347</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>0.64</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>0.36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>0.25546220883464499</v>
       </c>
-      <c r="C67">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D67" s="3">
         <v>0.21141361792011801</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>0.65</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>0.35</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>0.25800778127825502</v>
       </c>
-      <c r="C68">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D68" s="3">
         <v>0.21466613511888899</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>0.66</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>0.33999999999999903</v>
       </c>
     </row>
@@ -9130,2262 +9132,2262 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>0.26309892616547498</v>
       </c>
-      <c r="C70">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D70" s="3">
         <v>0.22117116951643101</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>0.68</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>0.31999999999999901</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>0.26564449860908401</v>
       </c>
-      <c r="C71">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D71" s="3">
         <v>0.22442368671520199</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>0.69</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>0.309999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>0.26819007105269399</v>
       </c>
-      <c r="C72">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D72" s="3">
         <v>0.227676203913973</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>0.7</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>0.29999999999999899</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>0.27073564349630402</v>
       </c>
-      <c r="C73">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D73" s="3">
         <v>0.23092872111274401</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>0.71</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>0.273281215939914</v>
       </c>
-      <c r="C74">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D74" s="3">
         <v>0.23418123831151499</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>0.72</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>0.27582678838352398</v>
       </c>
-      <c r="C75">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D75" s="3">
         <v>0.237433755510286</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>0.73</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>0.27</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>0.27837236082713401</v>
       </c>
-      <c r="C76">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D76" s="3">
         <v>0.24068627270905801</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>0.74</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>0.26</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>0.28091793327074399</v>
       </c>
-      <c r="C77">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D77" s="3">
         <v>0.243938789907829</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>0.75</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>0.28346350571435402</v>
       </c>
-      <c r="C78">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D78" s="3">
         <v>0.24719130710660001</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>0.76</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>0.24</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>0.286009078157964</v>
       </c>
-      <c r="C79">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D79" s="3">
         <v>0.25044382430537099</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>0.77</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>0.22999999999999901</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>0.28855465060157398</v>
       </c>
-      <c r="C80">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D80" s="3">
         <v>0.253696341504142</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>0.78</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>0.219999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>0.29110022304518401</v>
       </c>
-      <c r="C81">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D81" s="3">
         <v>0.25694885870291301</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>0.79</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>0.20999999999999899</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>0.29364579548879399</v>
       </c>
-      <c r="C82">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D82" s="3">
         <v>0.26020137590168402</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>0.8</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>0.19999999999999901</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>0.29619136793240403</v>
       </c>
-      <c r="C83">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D83" s="3">
         <v>0.26345389310045503</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>0.81</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>0.189999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>0.298736940376014</v>
       </c>
-      <c r="C84">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D84" s="3">
         <v>0.26670641029922598</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>0.82</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>0.17999999999999899</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>0.30128251281962298</v>
       </c>
-      <c r="C85">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D85" s="3">
         <v>0.26995892749799699</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>0.83</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>0.16999999999999901</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>0.30382808526323302</v>
       </c>
-      <c r="C86">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D86" s="3">
         <v>0.273211444696768</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>0.84</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>0.16</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>0.30637365770684299</v>
       </c>
-      <c r="C87">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D87" s="3">
         <v>0.27646396189553901</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>0.85</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>0.15</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>0.30891923015045297</v>
       </c>
-      <c r="C88">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D88" s="3">
         <v>0.27971647909431002</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>0.86</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>0.31146480259406301</v>
       </c>
-      <c r="C89">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D89" s="3">
         <v>0.28296899629308098</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>0.87</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>0.31401037503767298</v>
       </c>
-      <c r="C90">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D90" s="3">
         <v>0.28622151349185199</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>0.88</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>0.12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>0.31655594748128302</v>
       </c>
-      <c r="C91">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D91" s="3">
         <v>0.289474030690623</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>0.89</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>0.109999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>0.319101519924893</v>
       </c>
-      <c r="C92">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D92" s="3">
         <v>0.29272654788939401</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>0.9</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>9.9999999999999895E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>0.32164709236850297</v>
       </c>
-      <c r="C93">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D93" s="3">
         <v>0.29597906508816502</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>0.91</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>8.99999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>0.32419266481211301</v>
       </c>
-      <c r="C94">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D94" s="3">
         <v>0.29923158228693703</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>0.92</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>7.9999999999999905E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>0.32673823725572299</v>
       </c>
-      <c r="C95">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D95" s="3">
         <v>0.30248409948570798</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>0.93</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>6.9999999999999896E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>0.32928380969933302</v>
       </c>
-      <c r="C96">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D96" s="3">
         <v>0.30573661668447899</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>0.94</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>5.9999999999999901E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>0.331829382142943</v>
       </c>
-      <c r="C97">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D97" s="3">
         <v>0.30898913388325</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>0.95</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>4.9999999999999899E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>0.33437495458655198</v>
       </c>
-      <c r="C98">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D98" s="3">
         <v>0.31224165108202101</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>0.96</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>0.04</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>0.33692052703016201</v>
       </c>
-      <c r="C99">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D99" s="3">
         <v>0.31549416828079202</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>0.97</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>0.03</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>0.33946609947377199</v>
       </c>
-      <c r="C100">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D100">
+      <c r="C100" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D100" s="3">
         <v>0.31874668547956297</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>0.98</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="3">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>0.34201167191738202</v>
       </c>
-      <c r="C101">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D101" s="3">
         <v>0.32199920267833398</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>0.99</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="3">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>0.344557244360992</v>
       </c>
-      <c r="C102">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D102" s="3">
         <v>0.32525171987710499</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>1</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="3">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>0.34710281680460198</v>
       </c>
-      <c r="C103">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D103" s="3">
         <v>0.328504237075876</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>1.01</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>-0.01</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>0.34964838924821201</v>
       </c>
-      <c r="C104">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D104" s="3">
         <v>0.33175675427464701</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>1.02</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>-0.02</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="3">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>0.35219396169182199</v>
       </c>
-      <c r="C105">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D105" s="3">
         <v>0.33500927147341802</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>1.03</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>-0.03</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="3">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>0.35473953413543202</v>
       </c>
-      <c r="C106">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D106" s="3">
         <v>0.33826178867218898</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>1.04</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>-0.04</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>0.357285106579042</v>
       </c>
-      <c r="C107">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D107">
+      <c r="C107" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D107" s="3">
         <v>0.34151430587095999</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>1.05</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>-0.05</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="3">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>0.35983067902265198</v>
       </c>
-      <c r="C108">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D108" s="3">
         <v>0.344766823069731</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>1.06</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>-0.06</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="3">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>0.36237625146626201</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>0.78264688179719799</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>0.34801934026850201</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>1.07</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>0.36492182390987199</v>
       </c>
-      <c r="C110">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D110" s="3">
         <v>0.35127185746727302</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>1.08</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>-0.08</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="3">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>0.36746739635348202</v>
       </c>
-      <c r="C111">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D111" s="3">
         <v>0.35452437466604497</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>-0.09</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>0.370012968797091</v>
       </c>
-      <c r="C112">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D112" s="3">
         <v>0.35777689186481598</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="3">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>0.37255854124070098</v>
       </c>
-      <c r="C113">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D113" s="3">
         <v>0.36102940906358699</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>-0.11</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="3">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>0.37510411368431101</v>
       </c>
-      <c r="C114">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D114" s="3">
         <v>0.364281926262358</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>-0.12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="3">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>0.37764968612792099</v>
       </c>
-      <c r="C115">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D115" s="3">
         <v>0.36753444346112901</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>-0.13</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>0.38019525857153103</v>
       </c>
-      <c r="C116">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D116" s="3">
         <v>0.37078696065990002</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="3">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>0.382740831015141</v>
       </c>
-      <c r="C117">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D117">
+      <c r="C117" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D117" s="3">
         <v>0.37403947785867098</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>-0.15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="3">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>0.38528640345875098</v>
       </c>
-      <c r="C118">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D118">
+      <c r="C118" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D118" s="3">
         <v>0.37729199505744199</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>-0.159999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="3">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>0.38783197590236101</v>
       </c>
-      <c r="C119">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D119" s="3">
         <v>0.380544512256213</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>1.17</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>-0.16999999999999901</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="3">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>0.39037754834597099</v>
       </c>
-      <c r="C120">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D120">
+      <c r="C120" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D120" s="3">
         <v>0.38379702945498401</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>1.18</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>-0.17999999999999899</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="3">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>0.39292312078958103</v>
       </c>
-      <c r="C121">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D121">
+      <c r="C121" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D121" s="3">
         <v>0.38704954665375502</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>1.19</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>-0.189999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="3">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>0.395468693233191</v>
       </c>
-      <c r="C122">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D122" s="3">
         <v>0.39030206385252603</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>1.2</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>-0.19999999999999901</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="3">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>0.39801426567680098</v>
       </c>
-      <c r="C123">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D123" s="3">
         <v>0.39355458105129698</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>1.21</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>-0.20999999999999899</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>0.40055983812041102</v>
       </c>
-      <c r="C124">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D124" s="3">
         <v>0.39680709825006799</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>1.22</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>-0.219999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="3">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>0.40310541056402099</v>
       </c>
-      <c r="C125">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D125" s="3">
         <v>0.400059615448839</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>1.23</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>-0.22999999999999901</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="3">
         <v>124</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>0.40565098300762997</v>
       </c>
-      <c r="C126">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D126" s="3">
         <v>0.40331213264761001</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>1.24</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>-0.24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="3">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>0.40819655545124001</v>
       </c>
-      <c r="C127">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D127" s="3">
         <v>0.40656464984638102</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>1.25</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>-0.25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="3">
         <v>126</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>0.41074212789484998</v>
       </c>
-      <c r="C128">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D128">
+      <c r="C128" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D128" s="3">
         <v>0.40981716704515198</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>1.26</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>-0.26</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="3">
         <v>127</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>0.41328770033846002</v>
       </c>
-      <c r="C129">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D129" s="3">
         <v>0.41306968424392299</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>1.27</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>-0.27</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="3">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>0.41583327278207</v>
       </c>
-      <c r="C130">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D130">
+      <c r="C130" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D130" s="3">
         <v>0.41632220144269499</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>1.28</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="3">
         <v>129</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>0.41837884522567997</v>
       </c>
-      <c r="C131">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D131" s="3">
         <v>0.419574718641466</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>1.29</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="3">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>0.42092441766929001</v>
       </c>
-      <c r="C132">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D132" s="3">
         <v>0.42282723584023701</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>1.3</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>-0.3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>131</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>0.42346999011289999</v>
       </c>
-      <c r="C133">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D133" s="3">
         <v>0.42607975303900802</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>1.31</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>-0.31</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>0.42601556255651002</v>
       </c>
-      <c r="C134">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D134" s="3">
         <v>0.42933227023777898</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>1.32</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>-0.32</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="3">
         <v>133</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>0.42856113500012</v>
       </c>
-      <c r="C135">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D135" s="3">
         <v>0.43258478743654999</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>1.33</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>-0.33</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="3">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>0.43110670744372998</v>
       </c>
-      <c r="C136">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D136" s="3">
         <v>0.435837304635321</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>1.34</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>-0.34</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>0.43365227988734001</v>
       </c>
-      <c r="C137">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D137">
+      <c r="C137" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D137" s="3">
         <v>0.43908982183409201</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>1.35</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>-0.35</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="3">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>0.43619785233094999</v>
       </c>
-      <c r="C138">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D138" s="3">
         <v>0.44234233903286302</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>1.36</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>-0.36</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="3">
         <v>137</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>0.43874342477455902</v>
       </c>
-      <c r="C139">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D139">
+      <c r="C139" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D139" s="3">
         <v>0.44559485623163397</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>1.37</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>-0.37</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="3">
         <v>138</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>0.441288997218169</v>
       </c>
-      <c r="C140">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D140" s="3">
         <v>0.44884737343040498</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>1.38</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>-0.38</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="3">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>0.44383456966177898</v>
       </c>
-      <c r="C141">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D141">
+      <c r="C141" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D141" s="3">
         <v>0.45209989062917599</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>1.39</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>-0.39</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="3">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>0.44638014210538901</v>
       </c>
-      <c r="C142">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D142">
+      <c r="C142" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D142" s="3">
         <v>0.455352407827947</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>1.4</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>-0.4</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="3">
         <v>141</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>0.44892571454899899</v>
       </c>
-      <c r="C143">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D143" s="3">
         <v>0.45860492502671801</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>1.41</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>-0.40999999999999898</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="3">
         <v>142</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>0.45147128699260902</v>
       </c>
-      <c r="C144">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D144" s="3">
         <v>0.46185744222548902</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>1.42</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>-0.41999999999999899</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="3">
         <v>143</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>0.454016859436219</v>
       </c>
-      <c r="C145">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D145" s="3">
         <v>0.46510995942425998</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>1.43</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>-0.42999999999999899</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="3">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>0.45656243187982898</v>
       </c>
-      <c r="C146">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D146" s="3">
         <v>0.46836247662303099</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>1.44</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>-0.439999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="3">
         <v>145</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>0.45910800432343901</v>
       </c>
-      <c r="C147">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D147">
+      <c r="C147" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D147" s="3">
         <v>0.471614993821802</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>1.45</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>-0.44999999999999901</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="3">
         <v>146</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>0.46165357676704899</v>
       </c>
-      <c r="C148">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D148">
+      <c r="C148" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D148" s="3">
         <v>0.47486751102057301</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="3">
         <v>1.46</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>-0.45999999999999902</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="3">
         <v>147</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>0.46419914921065902</v>
       </c>
-      <c r="C149">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D149">
+      <c r="C149" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D149" s="3">
         <v>0.47812002821934402</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>1.47</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>-0.47</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="3">
         <v>148</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>0.466744721654269</v>
       </c>
-      <c r="C150">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D150">
+      <c r="C150" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D150" s="3">
         <v>0.48137254541811603</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="3">
         <v>1.48</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
         <v>-0.48</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="3">
         <v>149</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>0.46929029409787898</v>
       </c>
-      <c r="C151">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D151">
+      <c r="C151" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D151" s="3">
         <v>0.48462506261688698</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>1.49</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>-0.49</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>0.47183586654148801</v>
       </c>
-      <c r="C152">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D152" s="3">
         <v>0.48787757981565799</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="3">
         <v>1.5</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="3">
         <v>151</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>0.47438143898509799</v>
       </c>
-      <c r="C153">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D153" s="3">
         <v>0.491130097014429</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>1.51</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>-0.51</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="3">
         <v>152</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>0.47692701142870803</v>
       </c>
-      <c r="C154">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D154" s="3">
         <v>0.49438261421320001</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="3">
         <v>1.52</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
         <v>-0.52</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="3">
         <v>153</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>0.479472583872318</v>
       </c>
-      <c r="C155">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D155" s="3">
         <v>0.49763513141197102</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>1.53</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>-0.53</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="3">
         <v>154</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>0.48201815631592798</v>
       </c>
-      <c r="C156">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D156" s="3">
         <v>0.50088764861074198</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="3">
         <v>1.54</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
         <v>-0.54</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="3">
         <v>155</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>0.48456372875953801</v>
       </c>
-      <c r="C157">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D157">
+      <c r="C157" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D157" s="3">
         <v>0.50414016580951304</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>1.55</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="3">
         <v>156</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>0.48710930120314799</v>
       </c>
-      <c r="C158">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D158" s="3">
         <v>0.507392683008284</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>1.56</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="3">
         <v>157</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>0.48965487364675803</v>
       </c>
-      <c r="C159">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D159">
+      <c r="C159" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D159" s="3">
         <v>0.51064520020705495</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>1.57</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="3">
         <v>158</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>0.492200446090368</v>
       </c>
-      <c r="C160">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D160">
+      <c r="C160" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D160" s="3">
         <v>0.51389771740582602</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="3">
         <v>1.58</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="3">
         <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="3">
         <v>159</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>0.49474601853397798</v>
       </c>
-      <c r="C161">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D161" s="3">
         <v>0.51715023460459697</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>1.59</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>-0.59</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="3">
         <v>160</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>0.49729159097758802</v>
       </c>
-      <c r="C162">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D162" s="3">
         <v>0.52040275180336804</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="3">
         <v>1.6</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="3">
         <v>-0.6</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="3">
         <v>161</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>0.49983716342119799</v>
       </c>
-      <c r="C163">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D163">
+      <c r="C163" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D163" s="3">
         <v>0.52365526900213899</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>1.61</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>-0.61</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="3">
         <v>162</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>0.50238273586480797</v>
       </c>
-      <c r="C164">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D164">
+      <c r="C164" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D164" s="3">
         <v>0.52690778620091006</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>1.62</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>-0.62</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="3">
         <v>163</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>0.50492830830841795</v>
       </c>
-      <c r="C165">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D165">
+      <c r="C165" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D165" s="3">
         <v>0.53016030339968101</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="3">
         <v>1.63</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="3">
         <v>-0.63</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="3">
         <v>164</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>0.50747388075202804</v>
       </c>
-      <c r="C166">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D166">
+      <c r="C166" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D166" s="3">
         <v>0.53341282059845296</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="3">
         <v>1.64</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>-0.64</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="3">
         <v>165</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>0.51001945319563702</v>
       </c>
-      <c r="C167">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D167">
+      <c r="C167" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D167" s="3">
         <v>0.53666533779722403</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="3">
         <v>1.65</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>-0.65</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="3">
         <v>166</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>0.512565025639247</v>
       </c>
-      <c r="C168">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D168">
+      <c r="C168" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D168" s="3">
         <v>0.53991785499599498</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="3">
         <v>1.66</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>-0.66</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="3">
         <v>167</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>0.51511059808285697</v>
       </c>
-      <c r="C169">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D169">
+      <c r="C169" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D169" s="3">
         <v>0.54317037219476605</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="3">
         <v>1.67</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>-0.66999999999999904</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="3">
         <v>168</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>0.51765617052646695</v>
       </c>
-      <c r="C170">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D170">
+      <c r="C170" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D170" s="3">
         <v>0.546422889393537</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>1.68</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>-0.67999999999999905</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="3">
         <v>169</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>0.52020174297007704</v>
       </c>
-      <c r="C171">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D171">
+      <c r="C171" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D171" s="3">
         <v>0.54967540659230796</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="3">
         <v>1.69</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="3">
         <v>-0.69</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="3">
         <v>170</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>0.52274731541368702</v>
       </c>
-      <c r="C172">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D172">
+      <c r="C172" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D172" s="3">
         <v>0.55292792379107902</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="3">
         <v>1.7</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="3">
         <v>-0.7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="3">
         <v>171</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>0.525292887857297</v>
       </c>
-      <c r="C173">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D173">
+      <c r="C173" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D173" s="3">
         <v>0.55618044098984998</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="3">
         <v>1.71</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="3">
         <v>-0.71</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="3">
         <v>172</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>0.52783846030090698</v>
       </c>
-      <c r="C174">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D174">
+      <c r="C174" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D174" s="3">
         <v>0.55943295818862104</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="3">
         <v>1.72</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="3">
         <v>-0.72</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="3">
         <v>173</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>0.53038403274451695</v>
       </c>
-      <c r="C175">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D175">
+      <c r="C175" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D175" s="3">
         <v>0.562685475387392</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="3">
         <v>1.73</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="3">
         <v>-0.73</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="3">
         <v>174</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>0.53292960518812704</v>
       </c>
-      <c r="C176">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D176">
+      <c r="C176" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D176" s="3">
         <v>0.56593799258616295</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="3">
         <v>1.74</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="3">
         <v>-0.74</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="3">
         <v>175</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>0.53547517763173702</v>
       </c>
-      <c r="C177">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D177">
+      <c r="C177" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D177" s="3">
         <v>0.56919050978493402</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="3">
         <v>1.75</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="3">
         <v>-0.75</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="3">
         <v>176</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>0.538020750075347</v>
       </c>
-      <c r="C178">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D178">
+      <c r="C178" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D178" s="3">
         <v>0.57244302698370497</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <v>1.76</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="3">
         <v>-0.76</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="3">
         <v>177</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>0.54056632251895698</v>
       </c>
-      <c r="C179">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D179">
+      <c r="C179" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D179" s="3">
         <v>0.57569554418247604</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>1.77</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>-0.77</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="3">
         <v>178</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>0.54311189496256695</v>
       </c>
-      <c r="C180">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D180">
+      <c r="C180" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D180" s="3">
         <v>0.57894806138124699</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="3">
         <v>1.78</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="3">
         <v>-0.78</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="3">
         <v>179</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>0.54565746740617604</v>
       </c>
-      <c r="C181">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D181">
+      <c r="C181" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D181" s="3">
         <v>0.58220057858001795</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="3">
         <v>1.79</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="3">
         <v>-0.79</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="3">
         <v>180</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>0.54820303984978602</v>
       </c>
-      <c r="C182">
-        <v>0.78264688179719899</v>
-      </c>
-      <c r="D182">
+      <c r="C182" s="3">
+        <v>0.78264688179719899</v>
+      </c>
+      <c r="D182" s="3">
         <v>0.58545309577878901</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <v>1.8</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>-0.8</v>
       </c>
     </row>

--- a/sy-portfolio/optimal.xlsx
+++ b/sy-portfolio/optimal.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xebra/Desktop/Projects/quantitative-finance/portfolio-analysis/sy-portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408AC54-ECB9-D147-B229-65182887190B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4F642-56F0-2948-8F61-B93304077F42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{2369EFC0-1F95-458F-925E-AA1D4F128719}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{2369EFC0-1F95-458F-925E-AA1D4F128719}"/>
   </bookViews>
   <sheets>
     <sheet name="Returns" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>Sharpe Ratio</t>
   </si>
@@ -229,12 +230,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,12 +263,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CB02A9-F694-4643-82AE-53BF130C6E83}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1768,16 +1787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0562BE6D-1677-D442-88D9-E17C455295E5}">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="44" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1825,7 +1848,7 @@
       <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -1855,7 +1878,7 @@
       <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="3" t="s">
@@ -1959,7 +1982,7 @@
       <c r="N2" s="3">
         <v>0.13121099411266601</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>6.4275408893590902E-2</v>
       </c>
       <c r="P2" s="3">
@@ -1989,7 +2012,7 @@
       <c r="X2" s="3">
         <v>0.118637901112488</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="9">
         <v>3.8575546752166803E-2</v>
       </c>
       <c r="Z2" s="3">
@@ -2050,137 +2073,137 @@
         <v>0.101425336347163</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:44" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>0.118781984703271</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>0.14340887737535701</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>6.0453948944218801E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>9.3667788278735301E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>0.32587108454640901</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>-1.8611966655453199E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>0.10146836536574701</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>9.2315684992546304E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>7.2243075883846999E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>0.115584703247962</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>0.13432683563567199</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>7.5424456163823705E-2</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="9">
         <v>2.88227399977521E-2</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="9">
         <v>5.7485234554890699E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="9">
         <v>7.4749956212595003E-2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="9">
         <v>-6.1825096044204196E-4</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="9">
         <v>8.95873677824474E-2</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="9">
         <v>5.1978086361022899E-2</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="9">
         <v>4.1441106922943997E-2</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="9">
         <v>7.7500749856745696E-2</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="9">
         <v>0.13349772174124699</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="9">
         <v>7.7274433839398304E-2</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="9">
         <v>-3.2612673762528202E-2</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="9">
         <v>0.105206250318196</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="9">
         <v>8.4140312501301301E-2</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="9">
         <v>5.32245327716665E-2</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="9">
         <v>6.3137791474594404E-2</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="9">
         <v>0.12940459910212301</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="9">
         <v>7.1506120030253403E-2</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="9">
         <v>0.105501202784698</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="9">
         <v>9.6140942090987905E-2</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="9">
         <v>0.103672306445594</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="9">
         <v>0.107218597019156</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="9">
         <v>0.21931113867861299</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="9">
         <v>0.114562869550107</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
         <v>4.5114134155110598E-2</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="9">
         <v>3.9486471403361603E-2</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="9">
         <v>0.32990889574635601</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="9">
         <v>0.14809522451263099</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="9">
         <v>2.0075064064749199E-2</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="9">
         <v>-2.2210286173944299E-2</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="9">
         <v>4.5611117027998999E-2</v>
       </c>
     </row>
@@ -2227,7 +2250,7 @@
       <c r="N4" s="3">
         <v>8.6787012092390994E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>0.119098978327332</v>
       </c>
       <c r="P4" s="3">
@@ -2257,7 +2280,7 @@
       <c r="X4" s="3">
         <v>0.160405389865724</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="9">
         <v>-7.0531445549731203E-3</v>
       </c>
       <c r="Z4" s="3">
@@ -2361,7 +2384,7 @@
       <c r="N5" s="3">
         <v>8.3914562622689204E-2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="5">
         <v>7.0786203972600895E-2</v>
       </c>
       <c r="P5" s="3">
@@ -2391,7 +2414,7 @@
       <c r="X5" s="3">
         <v>0.15760602697564199</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="9">
         <v>5.9270608023987002E-2</v>
       </c>
       <c r="Z5" s="3">
@@ -2452,271 +2475,271 @@
         <v>8.4688143672031105E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.11157429695218</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>9.3667788278735301E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.14795080088674101</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.165765399773074</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>0.20480373804817401</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>3.3785947973171901E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>3.2802112027033897E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>0.236563318931126</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>7.6910185857030203E-2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>0.126509837798922</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>0.34314019792310302</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="5">
         <v>0.269230586174389</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>5.0273479762861003E-3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="5">
         <v>7.9713544243204398E-2</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="5">
         <v>-4.1055234367935404E-3</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="5">
         <v>5.8572160953171401E-2</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="5">
         <v>7.43160058849726E-2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="5">
         <v>0.27093583510504499</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="5">
         <v>8.7024706680509697E-2</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="5">
         <v>9.8695905346704194E-2</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="5">
         <v>0.23803855325515999</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="5">
         <v>0.26643325889979602</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="9">
         <v>0.141816964092667</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="5">
         <v>8.4281971542143702E-2</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="5">
         <v>8.2903876389042799E-2</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="5">
         <v>0.14267192495585501</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="5">
         <v>2.7795831365943099E-2</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>5.2657708584388098E-2</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="5">
         <v>0.38177781564520302</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="5">
         <v>0.42989650269007301</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="5">
         <v>0.18416319448128099</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="5">
         <v>0.335125441625375</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="5">
         <v>8.9972652760282198E-2</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="5">
         <v>0.18493794557226001</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="5">
         <v>0.229347077451377</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="5">
         <v>4.0029714257313997E-2</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="5">
         <v>-2.05545707212582E-2</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="5">
         <v>0.12195501856143499</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="5">
         <v>0.18134225087229899</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="5">
         <v>4.8050928550393099E-2</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="5">
         <v>-9.5068144528315402E-3</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="5">
         <v>2.8229867301241902E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>0.115717943854472</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>0.32587108454640901</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>0.19550280338196699</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>0.177987699715767</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>0.20480373804817401</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>4.43624960010085E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>0.10423617036799</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>0.37456577386564399</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="7">
         <v>5.2619861397229101E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>0.33154561390652199</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="7">
         <v>0.16315487316681099</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="7">
         <v>0.119175601479049</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>2.4479576957864999E-2</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="7">
         <v>8.7002673961228405E-2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="7">
         <v>6.8714741511539904E-2</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="7">
         <v>2.9546699154211299E-2</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="7">
         <v>0.108962098052448</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="7">
         <v>0.115870459163948</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="7">
         <v>4.2220570335169599E-2</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="7">
         <v>6.5887723744628604E-2</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="7">
         <v>0.16443027134632099</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="7">
         <v>0.13601640348218899</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="9">
         <v>4.1036268148724103E-2</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="7">
         <v>0.16630633580280499</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="7">
         <v>0.136884571871914</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="7">
         <v>7.9422184578847102E-2</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="7">
         <v>0.10369612499730201</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="7">
         <v>0.13192769034976601</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="7">
         <v>0.17434168463191099</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="7">
         <v>0.17747515682565701</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="7">
         <v>0.12169538809135</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="7">
         <v>0.19443613788931699</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="7">
         <v>0.10553749278736101</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="7">
         <v>0.30709329978463501</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="7">
         <v>0.10542927315737501</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="7">
         <v>0.124781834568556</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="7">
         <v>1.6980111460550701E-2</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="7">
         <v>0.22105071948493701</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="7">
         <v>0.154505848737196</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="7">
         <v>2.45756873044604E-2</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="7">
         <v>1.3540380710992299E-2</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="7">
         <v>6.3904687062102894E-2</v>
       </c>
     </row>
@@ -2763,7 +2786,7 @@
       <c r="N8" s="3">
         <v>2.8565441369451199E-2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>2.5542277113412101E-2</v>
       </c>
       <c r="P8" s="3">
@@ -2793,7 +2816,7 @@
       <c r="X8" s="3">
         <v>2.8528323573655999E-2</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="9">
         <v>4.9593479457027004E-3</v>
       </c>
       <c r="Z8" s="3">
@@ -2897,7 +2920,7 @@
       <c r="N9" s="3">
         <v>6.47670025449118E-2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>3.8251257647133399E-2</v>
       </c>
       <c r="P9" s="3">
@@ -2927,7 +2950,7 @@
       <c r="X9" s="3">
         <v>3.0185085009706999E-2</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="9">
         <v>1.6756540208197699E-2</v>
       </c>
       <c r="Z9" s="3">
@@ -3031,7 +3054,7 @@
       <c r="N10" s="3">
         <v>0.16344330501627499</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>2.08740633325399E-2</v>
       </c>
       <c r="P10" s="3">
@@ -3061,7 +3084,7 @@
       <c r="X10" s="3">
         <v>6.3451730926825906E-2</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="9">
         <v>4.6156940717270098E-2</v>
       </c>
       <c r="Z10" s="3">
@@ -3165,7 +3188,7 @@
       <c r="N11" s="3">
         <v>1.88387360169452E-2</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>9.4537736296282204E-2</v>
       </c>
       <c r="P11" s="3">
@@ -3195,7 +3218,7 @@
       <c r="X11" s="3">
         <v>9.7777559664966901E-2</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="9">
         <v>-3.0555226739058701E-3</v>
       </c>
       <c r="Z11" s="3">
@@ -3299,7 +3322,7 @@
       <c r="N12" s="3">
         <v>6.56166918759718E-2</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="5">
         <v>0.108938147146892</v>
       </c>
       <c r="P12" s="3">
@@ -3329,7 +3352,7 @@
       <c r="X12" s="3">
         <v>0.124919448669435</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="9">
         <v>3.7137344830679299E-2</v>
       </c>
       <c r="Z12" s="3">
@@ -3433,7 +3456,7 @@
       <c r="N13" s="3">
         <v>0.36251917310036003</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>7.2809267388243795E-2</v>
       </c>
       <c r="P13" s="3">
@@ -3463,7 +3486,7 @@
       <c r="X13" s="3">
         <v>0.307595111418765</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="9">
         <v>0.112883539713911</v>
       </c>
       <c r="Z13" s="3">
@@ -3567,7 +3590,7 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="5">
         <v>1.43152908048646E-2</v>
       </c>
       <c r="P14" s="3">
@@ -3597,7 +3620,7 @@
       <c r="X14" s="3">
         <v>0.18894594493962899</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="9">
         <v>1.48465333402432E-2</v>
       </c>
       <c r="Z14" s="3">
@@ -3701,7 +3724,7 @@
       <c r="N15" s="3">
         <v>1.43152908048646E-2</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="5">
         <v>1</v>
       </c>
       <c r="P15" s="3">
@@ -3731,7 +3754,7 @@
       <c r="X15" s="3">
         <v>-2.4521481268673699E-2</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="9">
         <v>-2.2346081646957599E-2</v>
       </c>
       <c r="Z15" s="3">
@@ -3835,7 +3858,7 @@
       <c r="N16" s="3">
         <v>1.7320729602584801E-2</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="5">
         <v>4.4747104086196303E-2</v>
       </c>
       <c r="P16" s="3">
@@ -3865,7 +3888,7 @@
       <c r="X16" s="3">
         <v>-4.5964205986817903E-3</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="9">
         <v>2.17416981931347E-3</v>
       </c>
       <c r="Z16" s="3">
@@ -3969,7 +3992,7 @@
       <c r="N17" s="3">
         <v>1.4452244891805801E-2</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="5">
         <v>9.1754620127115494E-2</v>
       </c>
       <c r="P17" s="3">
@@ -3999,7 +4022,7 @@
       <c r="X17" s="3">
         <v>7.9639933306697594E-2</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="9">
         <v>-2.60190450033446E-2</v>
       </c>
       <c r="Z17" s="3">
@@ -4103,7 +4126,7 @@
       <c r="N18" s="3">
         <v>8.5256300960673395E-2</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="5">
         <v>7.6702100436725304E-2</v>
       </c>
       <c r="P18" s="3">
@@ -4133,7 +4156,7 @@
       <c r="X18" s="3">
         <v>6.7591420133510299E-2</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="9">
         <v>-6.2783497609026498E-3</v>
       </c>
       <c r="Z18" s="3">
@@ -4237,7 +4260,7 @@
       <c r="N19" s="3">
         <v>5.2107832414560899E-2</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="5">
         <v>4.2909978640446503E-2</v>
       </c>
       <c r="P19" s="3">
@@ -4267,7 +4290,7 @@
       <c r="X19" s="3">
         <v>5.5444693230825202E-2</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="9">
         <v>3.2747333018052001E-2</v>
       </c>
       <c r="Z19" s="3">
@@ -4371,7 +4394,7 @@
       <c r="N20" s="3">
         <v>0.143776977061254</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="5">
         <v>3.1077739394887401E-2</v>
       </c>
       <c r="P20" s="3">
@@ -4401,7 +4424,7 @@
       <c r="X20" s="3">
         <v>0.122060120180544</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="9">
         <v>9.8151283299288697E-2</v>
       </c>
       <c r="Z20" s="3">
@@ -4505,7 +4528,7 @@
       <c r="N21" s="3">
         <v>8.2585986638944994E-2</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
         <v>7.4032043367657493E-2</v>
       </c>
       <c r="P21" s="3">
@@ -4535,7 +4558,7 @@
       <c r="X21" s="3">
         <v>3.1014842302806999E-2</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="9">
         <v>-6.3010692007620606E-2</v>
       </c>
       <c r="Z21" s="3">
@@ -4639,7 +4662,7 @@
       <c r="N22" s="3">
         <v>3.1831699873351098E-2</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="5">
         <v>1.0240057972196501E-2</v>
       </c>
       <c r="P22" s="3">
@@ -4669,7 +4692,7 @@
       <c r="X22" s="3">
         <v>1.7982344274247299E-2</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="9">
         <v>-2.3859011656906199E-2</v>
       </c>
       <c r="Z22" s="3">
@@ -4773,7 +4796,7 @@
       <c r="N23" s="3">
         <v>0.117810272314678</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="5">
         <v>5.2679341873456603E-2</v>
       </c>
       <c r="P23" s="3">
@@ -4803,7 +4826,7 @@
       <c r="X23" s="3">
         <v>0.32581088083577098</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="9">
         <v>5.50189579507782E-2</v>
       </c>
       <c r="Z23" s="3">
@@ -4907,7 +4930,7 @@
       <c r="N24" s="3">
         <v>0.18894594493962899</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="5">
         <v>-2.4521481268673699E-2</v>
       </c>
       <c r="P24" s="3">
@@ -4937,7 +4960,7 @@
       <c r="X24" s="3">
         <v>1</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="9">
         <v>5.72308483554392E-2</v>
       </c>
       <c r="Z24" s="3">
@@ -5041,7 +5064,7 @@
       <c r="N25" s="3">
         <v>1.48465333402432E-2</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="5">
         <v>-2.2346081646957599E-2</v>
       </c>
       <c r="P25" s="3">
@@ -5071,7 +5094,7 @@
       <c r="X25" s="3">
         <v>5.72308483554392E-2</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="9">
         <v>1</v>
       </c>
       <c r="Z25" s="3">
@@ -5175,7 +5198,7 @@
       <c r="N26" s="3">
         <v>9.08220760818675E-2</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="5">
         <v>0.236373442873727</v>
       </c>
       <c r="P26" s="3">
@@ -5205,7 +5228,7 @@
       <c r="X26" s="3">
         <v>8.1963285265896205E-2</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="9">
         <v>-6.0180752823960501E-2</v>
       </c>
       <c r="Z26" s="3">
@@ -5309,7 +5332,7 @@
       <c r="N27" s="3">
         <v>8.4556081195626395E-2</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="5">
         <v>4.6622455374805097E-2</v>
       </c>
       <c r="P27" s="3">
@@ -5339,7 +5362,7 @@
       <c r="X27" s="3">
         <v>1.9224010981052499E-2</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="9">
         <v>4.9017821557873202E-2</v>
       </c>
       <c r="Z27" s="3">
@@ -5443,7 +5466,7 @@
       <c r="N28" s="3">
         <v>1.14581072770707E-2</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="5">
         <v>2.84490728975616E-2</v>
       </c>
       <c r="P28" s="3">
@@ -5473,7 +5496,7 @@
       <c r="X28" s="3">
         <v>0.12904891755671299</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28" s="9">
         <v>5.8127464032509603E-2</v>
       </c>
       <c r="Z28" s="3">
@@ -5577,7 +5600,7 @@
       <c r="N29" s="3">
         <v>4.8521361975210502E-2</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="5">
         <v>0.12561059494011401</v>
       </c>
       <c r="P29" s="3">
@@ -5607,7 +5630,7 @@
       <c r="X29" s="3">
         <v>5.8112227975608201E-2</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="9">
         <v>-1.05284527048848E-2</v>
       </c>
       <c r="Z29" s="3">
@@ -5711,7 +5734,7 @@
       <c r="N30" s="3">
         <v>6.4861975794202997E-2</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="5">
         <v>3.6903032189438197E-2</v>
       </c>
       <c r="P30" s="3">
@@ -5741,7 +5764,7 @@
       <c r="X30" s="3">
         <v>0.10053780361086</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30" s="9">
         <v>3.5705100421944101E-2</v>
       </c>
       <c r="Z30" s="3">
@@ -5845,7 +5868,7 @@
       <c r="N31" s="3">
         <v>0.21966435334370299</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="5">
         <v>-4.5965008519812597E-3</v>
       </c>
       <c r="P31" s="3">
@@ -5875,7 +5898,7 @@
       <c r="X31" s="3">
         <v>0.24179155599719701</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31" s="9">
         <v>0.116773886359545</v>
       </c>
       <c r="Z31" s="3">
@@ -5979,7 +6002,7 @@
       <c r="N32" s="3">
         <v>0.22021261999073799</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="5">
         <v>4.8688159526488202E-2</v>
       </c>
       <c r="P32" s="3">
@@ -6009,7 +6032,7 @@
       <c r="X32" s="3">
         <v>0.27554179138784601</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="9">
         <v>0.14183584073486899</v>
       </c>
       <c r="Z32" s="3">
@@ -6113,7 +6136,7 @@
       <c r="N33" s="3">
         <v>0.15329282458066501</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="5">
         <v>5.4478647665860899E-2</v>
       </c>
       <c r="P33" s="3">
@@ -6143,7 +6166,7 @@
       <c r="X33" s="3">
         <v>8.4167692380900203E-2</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="9">
         <v>9.1484999086338697E-2</v>
       </c>
       <c r="Z33" s="3">
@@ -6247,7 +6270,7 @@
       <c r="N34" s="3">
         <v>0.17285001193258101</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="5">
         <v>1.69068095895595E-2</v>
       </c>
       <c r="P34" s="3">
@@ -6277,7 +6300,7 @@
       <c r="X34" s="3">
         <v>0.30037145966200701</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34" s="9">
         <v>9.2139669828719406E-2</v>
       </c>
       <c r="Z34" s="3">
@@ -6381,7 +6404,7 @@
       <c r="N35" s="3">
         <v>0.122038614483733</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="5">
         <v>7.8982052908016E-3</v>
       </c>
       <c r="P35" s="3">
@@ -6411,7 +6434,7 @@
       <c r="X35" s="3">
         <v>7.0223789598759898E-2</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="9">
         <v>3.3170186625534497E-2</v>
       </c>
       <c r="Z35" s="3">
@@ -6515,7 +6538,7 @@
       <c r="N36" s="3">
         <v>0.116007184198887</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="5">
         <v>4.8854256000075098E-2</v>
       </c>
       <c r="P36" s="3">
@@ -6545,7 +6568,7 @@
       <c r="X36" s="3">
         <v>0.17784552089483999</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y36" s="9">
         <v>3.9873514156932702E-2</v>
       </c>
       <c r="Z36" s="3">
@@ -6649,7 +6672,7 @@
       <c r="N37" s="3">
         <v>0.12214944235479901</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="5">
         <v>9.9690755590238406E-2</v>
       </c>
       <c r="P37" s="3">
@@ -6679,7 +6702,7 @@
       <c r="X37" s="3">
         <v>0.179340697579214</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="9">
         <v>0.12559118459454599</v>
       </c>
       <c r="Z37" s="3">
@@ -6783,7 +6806,7 @@
       <c r="N38" s="3">
         <v>5.1829528283312699E-2</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="5">
         <v>0.211437429358589</v>
       </c>
       <c r="P38" s="3">
@@ -6813,7 +6836,7 @@
       <c r="X38" s="3">
         <v>0.17224276234755601</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Y38" s="9">
         <v>3.4492793824623898E-2</v>
       </c>
       <c r="Z38" s="3">
@@ -6917,7 +6940,7 @@
       <c r="N39" s="3">
         <v>-8.5969128406013905E-3</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="5">
         <v>-3.0468506283394099E-2</v>
       </c>
       <c r="P39" s="3">
@@ -6947,7 +6970,7 @@
       <c r="X39" s="3">
         <v>2.9813799422716999E-2</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y39" s="9">
         <v>3.8352741355952999E-2</v>
       </c>
       <c r="Z39" s="3">
@@ -7051,7 +7074,7 @@
       <c r="N40" s="3">
         <v>0.16649767465667301</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="5">
         <v>5.6196287300951997E-2</v>
       </c>
       <c r="P40" s="3">
@@ -7081,7 +7104,7 @@
       <c r="X40" s="3">
         <v>0.174554832142128</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y40" s="9">
         <v>-4.4490198946681402E-2</v>
       </c>
       <c r="Z40" s="3">
@@ -7185,7 +7208,7 @@
       <c r="N41" s="3">
         <v>0.15228863007229901</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="5">
         <v>7.11410423876773E-3</v>
       </c>
       <c r="P41" s="3">
@@ -7215,7 +7238,7 @@
       <c r="X41" s="3">
         <v>0.18693464411199301</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="9">
         <v>6.4673570180682899E-2</v>
       </c>
       <c r="Z41" s="3">
@@ -7319,7 +7342,7 @@
       <c r="N42" s="3">
         <v>2.55375031719032E-3</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="5">
         <v>5.1727538940931003E-2</v>
       </c>
       <c r="P42" s="3">
@@ -7349,7 +7372,7 @@
       <c r="X42" s="3">
         <v>7.6363354465616706E-2</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="9">
         <v>-3.03379469461569E-2</v>
       </c>
       <c r="Z42" s="3">
@@ -7453,7 +7476,7 @@
       <c r="N43" s="3">
         <v>-1.43377306247489E-2</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="5">
         <v>8.5152097374381897E-2</v>
       </c>
       <c r="P43" s="3">
@@ -7483,7 +7506,7 @@
       <c r="X43" s="3">
         <v>-1.5728083963262099E-2</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="9">
         <v>3.1547986140305698E-2</v>
       </c>
       <c r="Z43" s="3">
@@ -7587,7 +7610,7 @@
       <c r="N44" s="3">
         <v>2.5276120644627299E-2</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="5">
         <v>3.91158384378009E-2</v>
       </c>
       <c r="P44" s="3">
@@ -7617,7 +7640,7 @@
       <c r="X44" s="3">
         <v>7.88644794790915E-3</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="9">
         <v>5.6559871725659697E-2</v>
       </c>
       <c r="Z44" s="3">
@@ -7693,7 +7716,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="O45" s="5"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -7703,7 +7726,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
+      <c r="Y45" s="9"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -7727,4 +7750,2064 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F449C1-6158-0B49-B229-489F86EF0B7F}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.25030065364336801</v>
+      </c>
+      <c r="E2">
+        <v>9.4350359410555501E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.6989935665834299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0.99</v>
+      </c>
+      <c r="D3">
+        <v>0.254431251878392</v>
+      </c>
+      <c r="E3">
+        <v>9.2498706738781897E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.7776600092663899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
+      </c>
+      <c r="C4">
+        <v>0.98</v>
+      </c>
+      <c r="D4">
+        <v>0.25856185011341698</v>
+      </c>
+      <c r="E4">
+        <v>9.0718578907671196E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.8580741910096501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>0.26269244834844102</v>
+      </c>
+      <c r="E5">
+        <v>8.90099759172234E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.94014711911662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.04</v>
+      </c>
+      <c r="C6">
+        <v>0.96</v>
+      </c>
+      <c r="D6">
+        <v>0.26682304658346501</v>
+      </c>
+      <c r="E6">
+        <v>8.7372897767438507E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.02377454681791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>0.27095364481848999</v>
+      </c>
+      <c r="E7">
+        <v>8.5807344458316601E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1088363235199901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.06</v>
+      </c>
+      <c r="C8">
+        <v>0.94</v>
+      </c>
+      <c r="D8">
+        <v>0.27508424305351398</v>
+      </c>
+      <c r="E8">
+        <v>8.4313315989857501E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.1951958700779701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.92999999999999905</v>
+      </c>
+      <c r="D9">
+        <v>0.27921484128853802</v>
+      </c>
+      <c r="E9">
+        <v>8.2890812362061306E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.2826998058851302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.08</v>
+      </c>
+      <c r="C10">
+        <v>0.92</v>
+      </c>
+      <c r="D10">
+        <v>0.283345439523563</v>
+      </c>
+      <c r="E10">
+        <v>8.1539833574928097E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.3711777550526301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.09</v>
+      </c>
+      <c r="C11">
+        <v>0.91</v>
+      </c>
+      <c r="D11">
+        <v>0.28747603775858699</v>
+      </c>
+      <c r="E11">
+        <v>8.0260379628457695E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.4604423586425299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.9</v>
+      </c>
+      <c r="D12">
+        <v>0.29160663599361097</v>
+      </c>
+      <c r="E12">
+        <v>7.9052450522650197E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.55028951867655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.11</v>
+      </c>
+      <c r="C13">
+        <v>0.89</v>
+      </c>
+      <c r="D13">
+        <v>0.29573723422863601</v>
+      </c>
+      <c r="E13">
+        <v>7.79160462575057E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.6404988973476899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.12</v>
+      </c>
+      <c r="C14">
+        <v>0.88</v>
+      </c>
+      <c r="D14">
+        <v>0.29986783246366</v>
+      </c>
+      <c r="E14">
+        <v>7.6851166833023996E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.7308346914191102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.13</v>
+      </c>
+      <c r="C15">
+        <v>0.87</v>
+      </c>
+      <c r="D15">
+        <v>0.30399843069868399</v>
+      </c>
+      <c r="E15">
+        <v>7.5857812249205306E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.8210466971505102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.86</v>
+      </c>
+      <c r="D16">
+        <v>0.30812902893370903</v>
+      </c>
+      <c r="E16">
+        <v>7.4935982506049395E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.9108716752475998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="C17">
+        <v>0.85</v>
+      </c>
+      <c r="D17">
+        <v>0.31225962716873301</v>
+      </c>
+      <c r="E17">
+        <v>7.4085677603556499E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.0000350183483202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.16</v>
+      </c>
+      <c r="C18">
+        <v>0.84</v>
+      </c>
+      <c r="D18">
+        <v>0.316390225403758</v>
+      </c>
+      <c r="E18">
+        <v>7.3306897541726507E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.0882527155769401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.17</v>
+      </c>
+      <c r="C19">
+        <v>0.83</v>
+      </c>
+      <c r="D19">
+        <v>0.32052082363878198</v>
+      </c>
+      <c r="E19">
+        <v>7.2599642320559404E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.17523359992507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.18</v>
+      </c>
+      <c r="C20">
+        <v>0.82</v>
+      </c>
+      <c r="D20">
+        <v>0.32465142187380602</v>
+      </c>
+      <c r="E20">
+        <v>7.1963911940055206E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.26068185494512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.19</v>
+      </c>
+      <c r="C21">
+        <v>0.81</v>
+      </c>
+      <c r="D21">
+        <v>0.32878202010883101</v>
+      </c>
+      <c r="E21">
+        <v>7.13997064002138E-2</v>
+      </c>
+      <c r="F21">
+        <v>3.3442997478224301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22">
+        <v>0.33291261834385499</v>
+      </c>
+      <c r="E22">
+        <v>7.0907025701035395E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.4257905467371401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.21</v>
+      </c>
+      <c r="C23">
+        <v>0.79</v>
+      </c>
+      <c r="D23">
+        <v>0.33704321657887898</v>
+      </c>
+      <c r="E23">
+        <v>7.0485869842519894E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.5048615719835099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="C24">
+        <v>0.78</v>
+      </c>
+      <c r="D24">
+        <v>0.34117381481390402</v>
+      </c>
+      <c r="E24">
+        <v>7.0136238824667296E-2</v>
+      </c>
+      <c r="F24">
+        <v>3.58122732303638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.23</v>
+      </c>
+      <c r="C25">
+        <v>0.77</v>
+      </c>
+      <c r="D25">
+        <v>0.34530441304892801</v>
+      </c>
+      <c r="E25">
+        <v>6.9858132647477603E-2</v>
+      </c>
+      <c r="F25">
+        <v>3.65461261807928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.24</v>
+      </c>
+      <c r="C26">
+        <v>0.76</v>
+      </c>
+      <c r="D26">
+        <v>0.34943501128395199</v>
+      </c>
+      <c r="E26">
+        <v>6.9651551310950799E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.7247556788180698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <v>0.75</v>
+      </c>
+      <c r="D27">
+        <v>0.35356560951897698</v>
+      </c>
+      <c r="E27">
+        <v>6.9516494815086899E-2</v>
+      </c>
+      <c r="F27">
+        <v>3.7914110920013799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.26</v>
+      </c>
+      <c r="C28">
+        <v>0.74</v>
+      </c>
+      <c r="D28">
+        <v>0.35769620775400102</v>
+      </c>
+      <c r="E28">
+        <v>6.9452963159885903E-2</v>
+      </c>
+      <c r="F28">
+        <v>3.8543525801446998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.27</v>
+      </c>
+      <c r="C29">
+        <v>0.73</v>
+      </c>
+      <c r="D29">
+        <v>0.361826805989025</v>
+      </c>
+      <c r="E29">
+        <v>6.9460956345347796E-2</v>
+      </c>
+      <c r="F29">
+        <v>3.9133755175720499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C30">
+        <v>0.72</v>
+      </c>
+      <c r="D30">
+        <v>0.36595740422404999</v>
+      </c>
+      <c r="E30">
+        <v>6.9540474371472705E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.9682991339681601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.71</v>
+      </c>
+      <c r="D31">
+        <v>0.37008800245907397</v>
+      </c>
+      <c r="E31">
+        <v>6.9691517238260406E-2</v>
+      </c>
+      <c r="F31">
+        <v>4.0189683559551899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.3</v>
+      </c>
+      <c r="C32">
+        <v>0.7</v>
+      </c>
+      <c r="D32">
+        <v>0.37421860069409801</v>
+      </c>
+      <c r="E32">
+        <v>6.9914084945710997E-2</v>
+      </c>
+      <c r="F32">
+        <v>4.0652552474197003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.31</v>
+      </c>
+      <c r="C33">
+        <v>0.69</v>
+      </c>
+      <c r="D33">
+        <v>0.378349198929123</v>
+      </c>
+      <c r="E33">
+        <v>7.0208177493824506E-2</v>
+      </c>
+      <c r="F33">
+        <v>4.1070600209567596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.32</v>
+      </c>
+      <c r="C34">
+        <v>0.67999999999999905</v>
+      </c>
+      <c r="D34">
+        <v>0.38247979716414698</v>
+      </c>
+      <c r="E34">
+        <v>7.0573794882601001E-2</v>
+      </c>
+      <c r="F34">
+        <v>4.1443116053300697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.33</v>
+      </c>
+      <c r="C35">
+        <v>0.66999999999999904</v>
+      </c>
+      <c r="D35">
+        <v>0.38661039539917202</v>
+      </c>
+      <c r="E35">
+        <v>7.1010937112040304E-2</v>
+      </c>
+      <c r="F35">
+        <v>4.1769677666861798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.34</v>
+      </c>
+      <c r="C36">
+        <v>0.65999999999999903</v>
+      </c>
+      <c r="D36">
+        <v>0.39074099363419601</v>
+      </c>
+      <c r="E36">
+        <v>7.1519604182142593E-2</v>
+      </c>
+      <c r="F36">
+        <v>4.2050147938219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.35</v>
+      </c>
+      <c r="C37">
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="D37">
+        <v>0.39487159186922</v>
+      </c>
+      <c r="E37">
+        <v>7.2099796092907703E-2</v>
+      </c>
+      <c r="F37">
+        <v>4.2284667695365297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.36</v>
+      </c>
+      <c r="C38">
+        <v>0.64</v>
+      </c>
+      <c r="D38">
+        <v>0.39900219010424498</v>
+      </c>
+      <c r="E38">
+        <v>7.27515128443358E-2</v>
+      </c>
+      <c r="F38">
+        <v>4.2473644605220402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.37</v>
+      </c>
+      <c r="C39">
+        <v>0.63</v>
+      </c>
+      <c r="D39">
+        <v>0.40313278833926902</v>
+      </c>
+      <c r="E39">
+        <v>7.3474754436426704E-2</v>
+      </c>
+      <c r="F39">
+        <v>4.2617738669709198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.38</v>
+      </c>
+      <c r="C40">
+        <v>0.62</v>
+      </c>
+      <c r="D40">
+        <v>0.40726338657429301</v>
+      </c>
+      <c r="E40">
+        <v>7.4269520869180594E-2</v>
+      </c>
+      <c r="F40">
+        <v>4.2717844798423501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.39</v>
+      </c>
+      <c r="C41">
+        <v>0.61</v>
+      </c>
+      <c r="D41">
+        <v>0.41139398480931799</v>
+      </c>
+      <c r="E41">
+        <v>7.5135812142597305E-2</v>
+      </c>
+      <c r="F41">
+        <v>4.2775072983753297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.4</v>
+      </c>
+      <c r="C42">
+        <v>0.6</v>
+      </c>
+      <c r="D42">
+        <v>0.41552458304434198</v>
+      </c>
+      <c r="E42">
+        <v>7.6073628256677003E-2</v>
+      </c>
+      <c r="F42">
+        <v>4.2790726629470397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.41</v>
+      </c>
+      <c r="C43">
+        <v>0.59</v>
+      </c>
+      <c r="D43">
+        <v>0.41965518127936602</v>
+      </c>
+      <c r="E43">
+        <v>7.7082969211419605E-2</v>
+      </c>
+      <c r="F43">
+        <v>4.2766279588323002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.42</v>
+      </c>
+      <c r="C44">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D44">
+        <v>0.423785779514391</v>
+      </c>
+      <c r="E44">
+        <v>7.8163835006825097E-2</v>
+      </c>
+      <c r="F44">
+        <v>4.2703352450048699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.43</v>
+      </c>
+      <c r="C45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D45">
+        <v>0.42791637774941499</v>
+      </c>
+      <c r="E45">
+        <v>7.9316225642893395E-2</v>
+      </c>
+      <c r="F45">
+        <v>4.2603688590884401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.44</v>
+      </c>
+      <c r="C46">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D46">
+        <v>0.43204697598443997</v>
+      </c>
+      <c r="E46">
+        <v>8.0540141119624695E-2</v>
+      </c>
+      <c r="F46">
+        <v>4.2469130452156003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.45</v>
+      </c>
+      <c r="C47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D47">
+        <v>0.43617757421946401</v>
+      </c>
+      <c r="E47">
+        <v>8.1835581437018898E-2</v>
+      </c>
+      <c r="F47">
+        <v>4.23015964621555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.46</v>
+      </c>
+      <c r="C48">
+        <v>0.54</v>
+      </c>
+      <c r="D48">
+        <v>0.440308172454488</v>
+      </c>
+      <c r="E48">
+        <v>8.3202546595076005E-2</v>
+      </c>
+      <c r="F48">
+        <v>4.2103058955556003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.47</v>
+      </c>
+      <c r="C49">
+        <v>0.53</v>
+      </c>
+      <c r="D49">
+        <v>0.44443877068951299</v>
+      </c>
+      <c r="E49">
+        <v>8.4641036593796001E-2</v>
+      </c>
+      <c r="F49">
+        <v>4.1875523381230897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.48</v>
+      </c>
+      <c r="C50">
+        <v>0.52</v>
+      </c>
+      <c r="D50">
+        <v>0.44856936892453703</v>
+      </c>
+      <c r="E50">
+        <v>8.6151051433178902E-2</v>
+      </c>
+      <c r="F50">
+        <v>4.1621009025369</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.49</v>
+      </c>
+      <c r="C51">
+        <v>0.51</v>
+      </c>
+      <c r="D51">
+        <v>0.45269996715956101</v>
+      </c>
+      <c r="E51">
+        <v>8.7732591113224706E-2</v>
+      </c>
+      <c r="F51">
+        <v>4.1341531414645303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>0.456830565394586</v>
+      </c>
+      <c r="E52">
+        <v>8.93856556339334E-2</v>
+      </c>
+      <c r="F52">
+        <v>4.1039086505880702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.51</v>
+      </c>
+      <c r="C53">
+        <v>0.49</v>
+      </c>
+      <c r="D53">
+        <v>0.46096116362960998</v>
+      </c>
+      <c r="E53">
+        <v>9.1110244995304998E-2</v>
+      </c>
+      <c r="F53">
+        <v>4.0715636715577501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.52</v>
+      </c>
+      <c r="C54">
+        <v>0.48</v>
+      </c>
+      <c r="D54">
+        <v>0.46509176186463402</v>
+      </c>
+      <c r="E54">
+        <v>9.29063591973395E-2</v>
+      </c>
+      <c r="F54">
+        <v>4.0373098795951501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.53</v>
+      </c>
+      <c r="C55">
+        <v>0.47</v>
+      </c>
+      <c r="D55">
+        <v>0.46922236009965901</v>
+      </c>
+      <c r="E55">
+        <v>9.4773998240037002E-2</v>
+      </c>
+      <c r="F55">
+        <v>4.0013333524158199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.54</v>
+      </c>
+      <c r="C56">
+        <v>0.45999999999999902</v>
+      </c>
+      <c r="D56">
+        <v>0.47335295833468299</v>
+      </c>
+      <c r="E56">
+        <v>9.6713162123397298E-2</v>
+      </c>
+      <c r="F56">
+        <v>3.96381371385168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C57">
+        <v>0.44999999999999901</v>
+      </c>
+      <c r="D57">
+        <v>0.47748355656970698</v>
+      </c>
+      <c r="E57">
+        <v>9.8723850847420497E-2</v>
+      </c>
+      <c r="F57">
+        <v>3.9249234429537201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C58">
+        <v>0.439999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.48161415480473202</v>
+      </c>
+      <c r="E58">
+        <v>0.100806064412106</v>
+      </c>
+      <c r="F58">
+        <v>3.8848273374086699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C59">
+        <v>0.42999999999999899</v>
+      </c>
+      <c r="D59">
+        <v>0.48574475303975601</v>
+      </c>
+      <c r="E59">
+        <v>0.102959802817455</v>
+      </c>
+      <c r="F59">
+        <v>3.84368211875268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C60">
+        <v>0.42</v>
+      </c>
+      <c r="D60">
+        <v>0.48987535127478099</v>
+      </c>
+      <c r="E60">
+        <v>0.105185066063467</v>
+      </c>
+      <c r="F60">
+        <v>3.8016361660456601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.59</v>
+      </c>
+      <c r="C61">
+        <v>0.41</v>
+      </c>
+      <c r="D61">
+        <v>0.49400594950980498</v>
+      </c>
+      <c r="E61">
+        <v>0.107481854150142</v>
+      </c>
+      <c r="F61">
+        <v>3.7588293643078101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.6</v>
+      </c>
+      <c r="C62">
+        <v>0.4</v>
+      </c>
+      <c r="D62">
+        <v>0.49813654774482902</v>
+      </c>
+      <c r="E62">
+        <v>0.10985016707747999</v>
+      </c>
+      <c r="F62">
+        <v>3.7153930540402298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.61</v>
+      </c>
+      <c r="C63">
+        <v>0.39</v>
+      </c>
+      <c r="D63">
+        <v>0.502267145979854</v>
+      </c>
+      <c r="E63">
+        <v>0.11229000484548</v>
+      </c>
+      <c r="F63">
+        <v>3.6714500684826099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.62</v>
+      </c>
+      <c r="C64">
+        <v>0.38</v>
+      </c>
+      <c r="D64">
+        <v>0.50639774421487804</v>
+      </c>
+      <c r="E64">
+        <v>0.114801367454144</v>
+      </c>
+      <c r="F64">
+        <v>3.6271148458331801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.63</v>
+      </c>
+      <c r="C65">
+        <v>0.37</v>
+      </c>
+      <c r="D65">
+        <v>0.51052834244990197</v>
+      </c>
+      <c r="E65">
+        <v>0.11738425490347</v>
+      </c>
+      <c r="F65">
+        <v>3.5824936044081599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.64</v>
+      </c>
+      <c r="C66">
+        <v>0.36</v>
+      </c>
+      <c r="D66">
+        <v>0.51465894068492701</v>
+      </c>
+      <c r="E66">
+        <v>0.12003866719346</v>
+      </c>
+      <c r="F66">
+        <v>3.5376845695939401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.65</v>
+      </c>
+      <c r="C67">
+        <v>0.35</v>
+      </c>
+      <c r="D67">
+        <v>0.51878953891995105</v>
+      </c>
+      <c r="E67">
+        <v>0.122764604324112</v>
+      </c>
+      <c r="F67">
+        <v>3.4927782423987401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.66</v>
+      </c>
+      <c r="C68">
+        <v>0.33999999999999903</v>
+      </c>
+      <c r="D68">
+        <v>0.52292013715497498</v>
+      </c>
+      <c r="E68">
+        <v>0.12556206629542699</v>
+      </c>
+      <c r="F68">
+        <v>3.4478577004011899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.67</v>
+      </c>
+      <c r="C69">
+        <v>0.32999999999999902</v>
+      </c>
+      <c r="D69">
+        <v>0.52705073539000002</v>
+      </c>
+      <c r="E69">
+        <v>0.12843105310740499</v>
+      </c>
+      <c r="F69">
+        <v>3.4029989228889801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.68</v>
+      </c>
+      <c r="C70">
+        <v>0.31999999999999901</v>
+      </c>
+      <c r="D70">
+        <v>0.53118133362502395</v>
+      </c>
+      <c r="E70">
+        <v>0.13137156476004599</v>
+      </c>
+      <c r="F70">
+        <v>3.3582711329567498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.69</v>
+      </c>
+      <c r="C71">
+        <v>0.309999999999999</v>
+      </c>
+      <c r="D71">
+        <v>0.535311931860048</v>
+      </c>
+      <c r="E71">
+        <v>0.13438360125335</v>
+      </c>
+      <c r="F71">
+        <v>3.3137371502681399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.7</v>
+      </c>
+      <c r="C72">
+        <v>0.29999999999999899</v>
+      </c>
+      <c r="D72">
+        <v>0.53944253009507304</v>
+      </c>
+      <c r="E72">
+        <v>0.137467162587317</v>
+      </c>
+      <c r="F72">
+        <v>3.2694537490696498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.71</v>
+      </c>
+      <c r="C73">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D73">
+        <v>0.54357312833009697</v>
+      </c>
+      <c r="E73">
+        <v>0.14062224876194701</v>
+      </c>
+      <c r="F73">
+        <v>3.2254720168636299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.72</v>
+      </c>
+      <c r="C74">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D74">
+        <v>0.54770372656512101</v>
+      </c>
+      <c r="E74">
+        <v>0.14384885977723899</v>
+      </c>
+      <c r="F74">
+        <v>3.18183770989849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.73</v>
+      </c>
+      <c r="C75">
+        <v>0.27</v>
+      </c>
+      <c r="D75">
+        <v>0.55183432480014605</v>
+      </c>
+      <c r="E75">
+        <v>0.147146995633195</v>
+      </c>
+      <c r="F75">
+        <v>3.13859160231444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.74</v>
+      </c>
+      <c r="C76">
+        <v>0.26</v>
+      </c>
+      <c r="D76">
+        <v>0.55596492303516998</v>
+      </c>
+      <c r="E76">
+        <v>0.15051665632981301</v>
+      </c>
+      <c r="F76">
+        <v>3.0957698263914599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.75</v>
+      </c>
+      <c r="C77">
+        <v>0.25</v>
+      </c>
+      <c r="D77">
+        <v>0.56009552127019502</v>
+      </c>
+      <c r="E77">
+        <v>0.15395784186709399</v>
+      </c>
+      <c r="F77">
+        <v>3.0534042018853902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.76</v>
+      </c>
+      <c r="C78">
+        <v>0.24</v>
+      </c>
+      <c r="D78">
+        <v>0.56422611950521895</v>
+      </c>
+      <c r="E78">
+        <v>0.157470552245039</v>
+      </c>
+      <c r="F78">
+        <v>3.0115225529105798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.77</v>
+      </c>
+      <c r="C79">
+        <v>0.22999999999999901</v>
+      </c>
+      <c r="D79">
+        <v>0.56835671774024299</v>
+      </c>
+      <c r="E79">
+        <v>0.16105478746364599</v>
+      </c>
+      <c r="F79">
+        <v>2.9701490112376701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.78</v>
+      </c>
+      <c r="C80">
+        <v>0.219999999999999</v>
+      </c>
+      <c r="D80">
+        <v>0.57248731597526803</v>
+      </c>
+      <c r="E80">
+        <v>0.164710547522916</v>
+      </c>
+      <c r="F80">
+        <v>2.9293043052275598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.79</v>
+      </c>
+      <c r="C81">
+        <v>0.20999999999999899</v>
+      </c>
+      <c r="D81">
+        <v>0.57661791421029196</v>
+      </c>
+      <c r="E81">
+        <v>0.16843783242284899</v>
+      </c>
+      <c r="F81">
+        <v>2.8890060339216301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.8</v>
+      </c>
+      <c r="C82">
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="D82">
+        <v>0.580748512445316</v>
+      </c>
+      <c r="E82">
+        <v>0.172236642163445</v>
+      </c>
+      <c r="F82">
+        <v>2.8492689260605601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.81</v>
+      </c>
+      <c r="C83">
+        <v>0.189999999999999</v>
+      </c>
+      <c r="D83">
+        <v>0.58487911068034104</v>
+      </c>
+      <c r="E83">
+        <v>0.17610697674470299</v>
+      </c>
+      <c r="F83">
+        <v>2.81010508401237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.82</v>
+      </c>
+      <c r="C84">
+        <v>0.17999999999999899</v>
+      </c>
+      <c r="D84">
+        <v>0.58900970891536497</v>
+      </c>
+      <c r="E84">
+        <v>0.18004883616662501</v>
+      </c>
+      <c r="F84">
+        <v>2.7715242127616899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.83</v>
+      </c>
+      <c r="C85">
+        <v>0.16999999999999901</v>
+      </c>
+      <c r="D85">
+        <v>0.59314030715038901</v>
+      </c>
+      <c r="E85">
+        <v>0.18406222042921</v>
+      </c>
+      <c r="F85">
+        <v>2.7335338342497901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.84</v>
+      </c>
+      <c r="C86">
+        <v>0.16</v>
+      </c>
+      <c r="D86">
+        <v>0.59727090538541405</v>
+      </c>
+      <c r="E86">
+        <v>0.18814712953245699</v>
+      </c>
+      <c r="F86">
+        <v>2.6961394874637401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.85</v>
+      </c>
+      <c r="C87">
+        <v>0.15</v>
+      </c>
+      <c r="D87">
+        <v>0.60140150362043798</v>
+      </c>
+      <c r="E87">
+        <v>0.19230356347636701</v>
+      </c>
+      <c r="F87">
+        <v>2.65934491475653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.86</v>
+      </c>
+      <c r="C88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D88">
+        <v>0.60553210185546202</v>
+      </c>
+      <c r="E88">
+        <v>0.19653152226094101</v>
+      </c>
+      <c r="F88">
+        <v>2.6231522349426202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.87</v>
+      </c>
+      <c r="C89">
+        <v>0.13</v>
+      </c>
+      <c r="D89">
+        <v>0.60966270009048695</v>
+      </c>
+      <c r="E89">
+        <v>0.200831005886177</v>
+      </c>
+      <c r="F89">
+        <v>2.58756210375708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.88</v>
+      </c>
+      <c r="C90">
+        <v>0.12</v>
+      </c>
+      <c r="D90">
+        <v>0.61379329832551099</v>
+      </c>
+      <c r="E90">
+        <v>0.205202014352076</v>
+      </c>
+      <c r="F90">
+        <v>2.5525738622955698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.89</v>
+      </c>
+      <c r="C91">
+        <v>0.109999999999999</v>
+      </c>
+      <c r="D91">
+        <v>0.61792389656053603</v>
+      </c>
+      <c r="E91">
+        <v>0.20964454765863799</v>
+      </c>
+      <c r="F91">
+        <v>2.5181856740684099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.9</v>
+      </c>
+      <c r="C92">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.62205449479555996</v>
+      </c>
+      <c r="E92">
+        <v>0.21415860580586299</v>
+      </c>
+      <c r="F92">
+        <v>2.4843946513075101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.91</v>
+      </c>
+      <c r="C93">
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.62618509303058401</v>
+      </c>
+      <c r="E93">
+        <v>0.21874418879374999</v>
+      </c>
+      <c r="F93">
+        <v>2.4511969711622399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.92</v>
+      </c>
+      <c r="C94">
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="D94">
+        <v>0.63031569126560905</v>
+      </c>
+      <c r="E94">
+        <v>0.22340129662230099</v>
+      </c>
+      <c r="F94">
+        <v>2.4185879824104402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.93</v>
+      </c>
+      <c r="C95">
+        <v>6.9999999999999896E-2</v>
+      </c>
+      <c r="D95">
+        <v>0.63444628950063298</v>
+      </c>
+      <c r="E95">
+        <v>0.22812992929151499</v>
+      </c>
+      <c r="F95">
+        <v>2.38656230329565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.94</v>
+      </c>
+      <c r="C96">
+        <v>5.9999999999999901E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.63857688773565702</v>
+      </c>
+      <c r="E96">
+        <v>0.23293008680139099</v>
+      </c>
+      <c r="F96">
+        <v>2.35511391108269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.95</v>
+      </c>
+      <c r="C97">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="D97">
+        <v>0.64270748597068195</v>
+      </c>
+      <c r="E97">
+        <v>0.23780176915193099</v>
+      </c>
+      <c r="F97">
+        <v>2.3242362239010799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.96</v>
+      </c>
+      <c r="C98">
+        <v>0.04</v>
+      </c>
+      <c r="D98">
+        <v>0.64683808420570599</v>
+      </c>
+      <c r="E98">
+        <v>0.242744976343133</v>
+      </c>
+      <c r="F98">
+        <v>2.2939221754216002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.97</v>
+      </c>
+      <c r="C99">
+        <v>0.03</v>
+      </c>
+      <c r="D99">
+        <v>0.65096868244073003</v>
+      </c>
+      <c r="E99">
+        <v>0.247759708374998</v>
+      </c>
+      <c r="F99">
+        <v>2.2641642828852202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.98</v>
+      </c>
+      <c r="C100">
+        <v>0.02</v>
+      </c>
+      <c r="D100">
+        <v>0.65509928067575496</v>
+      </c>
+      <c r="E100">
+        <v>0.25284596524752601</v>
+      </c>
+      <c r="F100">
+        <v>2.23495470897684</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.99</v>
+      </c>
+      <c r="C101">
+        <v>0.01</v>
+      </c>
+      <c r="D101">
+        <v>0.659229878910779</v>
+      </c>
+      <c r="E101">
+        <v>0.25800374696071698</v>
+      </c>
+      <c r="F101">
+        <v>2.20628531800915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.66336047714580304</v>
+      </c>
+      <c r="E102">
+        <v>0.26323305351457099</v>
+      </c>
+      <c r="F102">
+        <v>2.17814772685476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>